--- a/H2CS2/inputs/input_final.xlsx
+++ b/H2CS2/inputs/input_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22a94a39b5425449/Documents/02_School/04_ETH/02_Spring_2023_Semester/06_Case_Study/02_Model/Case-Study-ETH/H2CS2/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{8A885617-DCA3-4DF5-BD45-CE59E6F03888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C68BD6-BF1F-44F5-901D-BD1B306301D7}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{8A885617-DCA3-4DF5-BD45-CE59E6F03888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DEB1749-D7E6-4008-ACA3-C806A2AAC749}"/>
   <bookViews>
-    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="12318" firstSheet="1" activeTab="1" xr2:uid="{B45309CD-61A4-4A28-84F6-A1F6AFA13388}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="1" activeTab="1" xr2:uid="{B45309CD-61A4-4A28-84F6-A1F6AFA13388}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="6" r:id="rId1"/>
@@ -10080,9 +10080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859B5229-E94A-4079-9757-A01BBA7C9852}">
   <dimension ref="A1:XEW392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P375" sqref="P375"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3:P392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10254,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="29">
         <v>0.1</v>
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="29">
         <v>0.1</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="29">
         <v>0.1</v>
@@ -10413,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="29">
         <v>0.1</v>
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="29">
         <v>0.1</v>
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="29">
         <v>0.1</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="29">
         <v>0.1</v>
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="29">
         <v>0.1</v>
@@ -10678,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="29">
         <v>0.1</v>
@@ -10731,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="29">
         <v>0.1</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="29">
         <v>0.1</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="29">
         <v>0.1</v>
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="29">
         <v>0.1</v>
@@ -10943,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="29">
         <v>0.1</v>
@@ -10996,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="29">
         <v>0.1</v>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="29">
         <v>0.1</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="29">
         <v>0.1</v>
@@ -11155,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="29">
         <v>0.1</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="29">
         <v>0.1</v>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="29">
         <v>0.1</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="29">
         <v>0.1</v>
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="29">
         <v>0.1</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="29">
         <v>0.1</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="29">
         <v>0.1</v>
@@ -11526,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="29">
         <v>0.1</v>
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="29">
         <v>0.1</v>
@@ -11632,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="29">
         <v>0.1</v>
@@ -11685,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="29">
         <v>0.1</v>
@@ -11738,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="29">
         <v>0.1</v>
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="29">
         <v>0.1</v>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q33" s="29">
         <v>0.1</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="29">
         <v>0.1</v>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="29">
         <v>0.1</v>
@@ -12003,7 +12003,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q36" s="29">
         <v>0.1</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q37" s="29">
         <v>0.1</v>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q38" s="29">
         <v>0.1</v>
@@ -12162,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q39" s="29">
         <v>0.1</v>
@@ -12215,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q40" s="29">
         <v>0.1</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q41" s="29">
         <v>0.1</v>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q42" s="29">
         <v>0.1</v>
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q43" s="29">
         <v>0.1</v>
@@ -12427,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q44" s="29">
         <v>0.1</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q45" s="29">
         <v>0.1</v>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q46" s="29">
         <v>0.1</v>
@@ -12586,7 +12586,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q47" s="29">
         <v>0.1</v>
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q48" s="29">
         <v>0.1</v>
@@ -12692,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q49" s="29">
         <v>0.1</v>
@@ -12745,7 +12745,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q50" s="29">
         <v>0.1</v>
@@ -12801,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q51" s="29">
         <v>0.1</v>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="29">
         <v>0.1</v>
@@ -12910,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q53" s="29">
         <v>0.1</v>
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q54" s="29">
         <v>0.1</v>
@@ -13016,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q55" s="29">
         <v>0.1</v>
@@ -13069,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q56" s="29">
         <v>0.1</v>
@@ -13122,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q57" s="29">
         <v>0.1</v>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q58" s="29">
         <v>0.1</v>
@@ -13228,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q59" s="29">
         <v>0.1</v>
@@ -13281,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q60" s="29">
         <v>0.1</v>
@@ -13334,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q61" s="29">
         <v>0.1</v>
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q62" s="29">
         <v>0.1</v>
@@ -13440,7 +13440,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q63" s="29">
         <v>0.1</v>
@@ -13493,7 +13493,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q64" s="29">
         <v>0.1</v>
@@ -13546,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q65" s="29">
         <v>0.1</v>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q66" s="29">
         <v>0.1</v>
@@ -13652,7 +13652,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q67" s="29">
         <v>0.1</v>
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q68" s="29">
         <v>0.1</v>
@@ -13758,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q69" s="29">
         <v>0.1</v>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q70" s="29">
         <v>0.1</v>
@@ -13864,7 +13864,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q71" s="29">
         <v>0.1</v>
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q72" s="29">
         <v>0.1</v>
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q73" s="29">
         <v>0.1</v>
@@ -14023,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q74" s="29">
         <v>0.1</v>
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q75" s="29">
         <v>0.1</v>
@@ -14129,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q76" s="29">
         <v>0.1</v>
@@ -14182,7 +14182,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q77" s="29">
         <v>0.1</v>
@@ -14235,7 +14235,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q78" s="29">
         <v>0.1</v>
@@ -14288,7 +14288,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q79" s="29">
         <v>0.1</v>
@@ -14341,7 +14341,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q80" s="29">
         <v>0.1</v>
@@ -14394,7 +14394,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P81" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q81" s="29">
         <v>0.1</v>
@@ -14447,7 +14447,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P82" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q82" s="29">
         <v>0.1</v>
@@ -14500,7 +14500,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P83" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q83" s="29">
         <v>0.1</v>
@@ -14553,7 +14553,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P84" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q84" s="29">
         <v>0.1</v>
@@ -14606,7 +14606,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P85" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q85" s="29">
         <v>0.1</v>
@@ -14659,7 +14659,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P86" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q86" s="29">
         <v>0.1</v>
@@ -14712,7 +14712,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P87" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q87" s="29">
         <v>0.1</v>
@@ -14765,7 +14765,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P88" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q88" s="29">
         <v>0.1</v>
@@ -14818,7 +14818,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P89" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q89" s="29">
         <v>0.1</v>
@@ -14871,7 +14871,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P90" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q90" s="29">
         <v>0.1</v>
@@ -14924,7 +14924,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P91" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q91" s="29">
         <v>0.1</v>
@@ -14977,7 +14977,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P92" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q92" s="29">
         <v>0.1</v>
@@ -15030,7 +15030,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P93" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q93" s="29">
         <v>0.1</v>
@@ -15083,7 +15083,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P94" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q94" s="29">
         <v>0.1</v>
@@ -15136,7 +15136,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P95" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q95" s="29">
         <v>0.1</v>
@@ -15189,7 +15189,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P96" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q96" s="29">
         <v>0.1</v>
@@ -15242,7 +15242,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P97" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q97" s="29">
         <v>0.1</v>
@@ -15295,7 +15295,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P98" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q98" s="29">
         <v>0.1</v>
@@ -15348,7 +15348,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P99" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q99" s="29">
         <v>0.1</v>
@@ -15401,7 +15401,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P100" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q100" s="29">
         <v>0.1</v>
@@ -15454,7 +15454,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P101" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q101" s="29">
         <v>0.1</v>
@@ -15507,7 +15507,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P102" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q102" s="29">
         <v>0.1</v>
@@ -15560,7 +15560,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P103" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q103" s="29">
         <v>0.1</v>
@@ -15613,7 +15613,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P104" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q104" s="29">
         <v>0.1</v>
@@ -15666,7 +15666,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P105" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q105" s="29">
         <v>0.1</v>
@@ -15719,7 +15719,7 @@
         <v>1.6176996000000001</v>
       </c>
       <c r="P106" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q106" s="29">
         <v>0.1</v>
@@ -15772,10 +15772,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P107" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q107" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -15825,10 +15825,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P108" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q108" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -15878,10 +15878,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P109" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q109" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -15931,10 +15931,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P110" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q110" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -15984,10 +15984,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P111" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q111" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16037,10 +16037,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P112" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q112" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16090,10 +16090,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P113" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q113" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16143,10 +16143,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P114" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q114" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16196,10 +16196,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P115" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q115" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16249,10 +16249,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P116" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q116" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16302,10 +16302,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P117" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q117" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16355,10 +16355,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P118" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q118" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16408,10 +16408,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P119" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q119" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16461,10 +16461,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P120" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q120" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16514,10 +16514,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P121" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q121" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16567,10 +16567,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P122" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q122" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16620,10 +16620,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P123" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q123" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16673,10 +16673,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P124" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q124" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16726,10 +16726,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P125" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q125" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16779,10 +16779,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P126" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q126" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16832,10 +16832,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P127" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q127" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16885,10 +16885,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P128" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q128" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16938,10 +16938,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P129" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q129" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -16991,10 +16991,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P130" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q130" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -17044,10 +17044,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P131" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q131" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -17097,10 +17097,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P132" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q132" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -17150,7 +17150,7 @@
         <v>0</v>
       </c>
       <c r="P133" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q133" s="29">
         <v>0.1</v>
@@ -17203,7 +17203,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q134" s="29">
         <v>0.1</v>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="P135" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q135" s="29">
         <v>0.1</v>
@@ -17309,7 +17309,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q136" s="29">
         <v>0.1</v>
@@ -17362,7 +17362,7 @@
         <v>0</v>
       </c>
       <c r="P137" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q137" s="29">
         <v>0.1</v>
@@ -17415,7 +17415,7 @@
         <v>0</v>
       </c>
       <c r="P138" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q138" s="29">
         <v>0.1</v>
@@ -17468,7 +17468,7 @@
         <v>0</v>
       </c>
       <c r="P139" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q139" s="29">
         <v>0.1</v>
@@ -17521,7 +17521,7 @@
         <v>0</v>
       </c>
       <c r="P140" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q140" s="29">
         <v>0.1</v>
@@ -17574,7 +17574,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q141" s="29">
         <v>0.1</v>
@@ -17627,7 +17627,7 @@
         <v>0</v>
       </c>
       <c r="P142" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q142" s="29">
         <v>0.1</v>
@@ -17680,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="P143" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q143" s="29">
         <v>0.1</v>
@@ -17733,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="P144" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q144" s="29">
         <v>0.1</v>
@@ -17786,7 +17786,7 @@
         <v>0</v>
       </c>
       <c r="P145" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q145" s="29">
         <v>0.1</v>
@@ -17839,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="P146" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q146" s="29">
         <v>0.1</v>
@@ -17892,7 +17892,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q147" s="29">
         <v>0.1</v>
@@ -17945,7 +17945,7 @@
         <v>0</v>
       </c>
       <c r="P148" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q148" s="29">
         <v>0.1</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="P149" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q149" s="29">
         <v>0.1</v>
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="P150" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q150" s="29">
         <v>0.1</v>
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="P151" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q151" s="29">
         <v>0.1</v>
@@ -18157,7 +18157,7 @@
         <v>0</v>
       </c>
       <c r="P152" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q152" s="29">
         <v>0.1</v>
@@ -18210,7 +18210,7 @@
         <v>0</v>
       </c>
       <c r="P153" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q153" s="29">
         <v>0.1</v>
@@ -18263,7 +18263,7 @@
         <v>0</v>
       </c>
       <c r="P154" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q154" s="29">
         <v>0.1</v>
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="P155" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q155" s="29">
         <v>0.1</v>
@@ -18369,7 +18369,7 @@
         <v>0</v>
       </c>
       <c r="P156" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q156" s="29">
         <v>0.1</v>
@@ -18422,7 +18422,7 @@
         <v>0</v>
       </c>
       <c r="P157" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q157" s="29">
         <v>0.1</v>
@@ -18475,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="P158" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q158" s="29">
         <v>0.1</v>
@@ -18528,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="P159" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q159" s="29">
         <v>0.1</v>
@@ -18581,7 +18581,7 @@
         <v>0</v>
       </c>
       <c r="P160" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q160" s="29">
         <v>0.1</v>
@@ -18634,7 +18634,7 @@
         <v>0</v>
       </c>
       <c r="P161" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q161" s="29">
         <v>0.1</v>
@@ -18687,7 +18687,7 @@
         <v>0</v>
       </c>
       <c r="P162" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q162" s="29">
         <v>0.1</v>
@@ -18740,7 +18740,7 @@
         <v>0</v>
       </c>
       <c r="P163" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q163" s="29">
         <v>0.1</v>
@@ -18793,7 +18793,7 @@
         <v>0</v>
       </c>
       <c r="P164" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q164" s="29">
         <v>0.1</v>
@@ -18846,7 +18846,7 @@
         <v>0</v>
       </c>
       <c r="P165" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q165" s="29">
         <v>0.1</v>
@@ -18899,7 +18899,7 @@
         <v>0</v>
       </c>
       <c r="P166" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q166" s="29">
         <v>0.1</v>
@@ -18952,7 +18952,7 @@
         <v>0</v>
       </c>
       <c r="P167" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q167" s="29">
         <v>0.1</v>
@@ -19005,7 +19005,7 @@
         <v>0</v>
       </c>
       <c r="P168" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q168" s="29">
         <v>0.1</v>
@@ -19058,7 +19058,7 @@
         <v>0</v>
       </c>
       <c r="P169" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q169" s="29">
         <v>0.1</v>
@@ -19111,7 +19111,7 @@
         <v>0</v>
       </c>
       <c r="P170" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q170" s="29">
         <v>0.1</v>
@@ -19164,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="P171" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q171" s="29">
         <v>0.1</v>
@@ -19217,7 +19217,7 @@
         <v>0</v>
       </c>
       <c r="P172" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q172" s="29">
         <v>0.1</v>
@@ -19270,7 +19270,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q173" s="29">
         <v>0.1</v>
@@ -19323,7 +19323,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q174" s="29">
         <v>0.1</v>
@@ -19376,7 +19376,7 @@
         <v>0</v>
       </c>
       <c r="P175" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q175" s="29">
         <v>0.1</v>
@@ -19429,7 +19429,7 @@
         <v>0</v>
       </c>
       <c r="P176" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q176" s="29">
         <v>0.1</v>
@@ -19482,7 +19482,7 @@
         <v>0</v>
       </c>
       <c r="P177" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q177" s="29">
         <v>0.1</v>
@@ -19535,7 +19535,7 @@
         <v>0</v>
       </c>
       <c r="P178" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q178" s="29">
         <v>0.1</v>
@@ -19588,7 +19588,7 @@
         <v>0</v>
       </c>
       <c r="P179" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q179" s="29">
         <v>0.1</v>
@@ -19641,7 +19641,7 @@
         <v>0</v>
       </c>
       <c r="P180" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q180" s="29">
         <v>0.1</v>
@@ -19694,7 +19694,7 @@
         <v>0</v>
       </c>
       <c r="P181" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q181" s="29">
         <v>0.1</v>
@@ -19747,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="P182" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q182" s="29">
         <v>0.1</v>
@@ -19800,7 +19800,7 @@
         <v>0</v>
       </c>
       <c r="P183" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q183" s="29">
         <v>0.1</v>
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="P184" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q184" s="29">
         <v>0.1</v>
@@ -19906,7 +19906,7 @@
         <v>0</v>
       </c>
       <c r="P185" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q185" s="29">
         <v>0.1</v>
@@ -19959,7 +19959,7 @@
         <v>0</v>
       </c>
       <c r="P186" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q186" s="29">
         <v>0.1</v>
@@ -20012,7 +20012,7 @@
         <v>0</v>
       </c>
       <c r="P187" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q187" s="29">
         <v>0.1</v>
@@ -20065,7 +20065,7 @@
         <v>0</v>
       </c>
       <c r="P188" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q188" s="29">
         <v>0.1</v>
@@ -20118,7 +20118,7 @@
         <v>0</v>
       </c>
       <c r="P189" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q189" s="29">
         <v>0.1</v>
@@ -20171,7 +20171,7 @@
         <v>0</v>
       </c>
       <c r="P190" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q190" s="29">
         <v>0.1</v>
@@ -20224,7 +20224,7 @@
         <v>0</v>
       </c>
       <c r="P191" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q191" s="29">
         <v>0.1</v>
@@ -20277,7 +20277,7 @@
         <v>0</v>
       </c>
       <c r="P192" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q192" s="29">
         <v>0.1</v>
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="P193" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q193" s="29">
         <v>0.1</v>
@@ -20383,7 +20383,7 @@
         <v>0</v>
       </c>
       <c r="P194" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q194" s="29">
         <v>0.1</v>
@@ -20436,7 +20436,7 @@
         <v>0</v>
       </c>
       <c r="P195" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q195" s="29">
         <v>0.1</v>
@@ -20489,7 +20489,7 @@
         <v>0</v>
       </c>
       <c r="P196" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q196" s="29">
         <v>0.1</v>
@@ -20542,7 +20542,7 @@
         <v>0</v>
       </c>
       <c r="P197" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q197" s="29">
         <v>0.1</v>
@@ -20595,7 +20595,7 @@
         <v>0</v>
       </c>
       <c r="P198" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q198" s="29">
         <v>0.1</v>
@@ -20648,7 +20648,7 @@
         <v>0</v>
       </c>
       <c r="P199" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q199" s="29">
         <v>0.1</v>
@@ -20701,7 +20701,7 @@
         <v>0</v>
       </c>
       <c r="P200" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q200" s="29">
         <v>0.1</v>
@@ -20754,7 +20754,7 @@
         <v>0</v>
       </c>
       <c r="P201" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q201" s="29">
         <v>0.1</v>
@@ -20807,7 +20807,7 @@
         <v>0</v>
       </c>
       <c r="P202" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q202" s="29">
         <v>0.1</v>
@@ -20860,7 +20860,7 @@
         <v>0</v>
       </c>
       <c r="P203" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q203" s="29">
         <v>0.1</v>
@@ -20913,7 +20913,7 @@
         <v>0</v>
       </c>
       <c r="P204" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q204" s="29">
         <v>0.1</v>
@@ -20966,7 +20966,7 @@
         <v>0</v>
       </c>
       <c r="P205" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q205" s="29">
         <v>0.1</v>
@@ -21019,7 +21019,7 @@
         <v>0</v>
       </c>
       <c r="P206" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q206" s="29">
         <v>0.1</v>
@@ -21072,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="P207" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q207" s="29">
         <v>0.1</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="P208" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q208" s="29">
         <v>0.1</v>
@@ -21178,7 +21178,7 @@
         <v>0</v>
       </c>
       <c r="P209" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q209" s="29">
         <v>0.1</v>
@@ -21231,7 +21231,7 @@
         <v>0</v>
       </c>
       <c r="P210" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q210" s="29">
         <v>0.1</v>
@@ -21284,7 +21284,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P211" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q211" s="29">
         <v>0.1</v>
@@ -21337,7 +21337,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P212" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q212" s="29">
         <v>0.1</v>
@@ -21390,7 +21390,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P213" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q213" s="29">
         <v>0.1</v>
@@ -21443,7 +21443,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P214" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q214" s="29">
         <v>0.1</v>
@@ -21496,7 +21496,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P215" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q215" s="29">
         <v>0.1</v>
@@ -21549,7 +21549,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P216" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q216" s="29">
         <v>0.1</v>
@@ -21602,7 +21602,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P217" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q217" s="29">
         <v>0.1</v>
@@ -21655,7 +21655,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P218" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q218" s="29">
         <v>0.1</v>
@@ -21708,7 +21708,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P219" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q219" s="29">
         <v>0.1</v>
@@ -21761,7 +21761,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P220" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q220" s="29">
         <v>0.1</v>
@@ -21814,7 +21814,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P221" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q221" s="29">
         <v>0.1</v>
@@ -21867,7 +21867,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P222" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q222" s="29">
         <v>0.1</v>
@@ -21920,7 +21920,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P223" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q223" s="29">
         <v>0.1</v>
@@ -21973,7 +21973,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P224" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q224" s="29">
         <v>0.1</v>
@@ -22026,7 +22026,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P225" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q225" s="29">
         <v>0.1</v>
@@ -22079,7 +22079,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P226" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q226" s="29">
         <v>0.1</v>
@@ -22132,7 +22132,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P227" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q227" s="29">
         <v>0.1</v>
@@ -22185,7 +22185,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P228" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q228" s="29">
         <v>0.1</v>
@@ -22238,7 +22238,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P229" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q229" s="29">
         <v>0.1</v>
@@ -22291,7 +22291,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P230" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q230" s="29">
         <v>0.1</v>
@@ -22344,7 +22344,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P231" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q231" s="29">
         <v>0.1</v>
@@ -22397,7 +22397,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P232" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q232" s="29">
         <v>0.1</v>
@@ -22450,7 +22450,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P233" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q233" s="29">
         <v>0.1</v>
@@ -22503,7 +22503,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P234" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q234" s="29">
         <v>0.1</v>
@@ -22556,7 +22556,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P235" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q235" s="29">
         <v>0.1</v>
@@ -22609,7 +22609,7 @@
         <v>1.0784663999999997</v>
       </c>
       <c r="P236" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q236" s="29">
         <v>0.1</v>
@@ -22662,10 +22662,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P237" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q237" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -22715,10 +22715,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P238" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q238" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -22768,10 +22768,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P239" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q239" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -22821,10 +22821,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P240" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q240" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -22874,10 +22874,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P241" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q241" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -22927,10 +22927,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P242" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q242" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -22980,10 +22980,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P243" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q243" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23033,10 +23033,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P244" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q244" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23086,10 +23086,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P245" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q245" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23139,10 +23139,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P246" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q246" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23192,10 +23192,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P247" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q247" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23245,10 +23245,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P248" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q248" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23298,10 +23298,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P249" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q249" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23351,10 +23351,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P250" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q250" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23404,10 +23404,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P251" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q251" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23457,10 +23457,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P252" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q252" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23510,10 +23510,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P253" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q253" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23563,10 +23563,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P254" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q254" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23616,10 +23616,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P255" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q255" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23669,10 +23669,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P256" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q256" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23722,10 +23722,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P257" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q257" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23775,10 +23775,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P258" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q258" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23828,10 +23828,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P259" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q259" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23881,10 +23881,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P260" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q260" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23934,10 +23934,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P261" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q261" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -23987,10 +23987,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P262" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q262" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -24040,7 +24040,7 @@
         <v>0</v>
       </c>
       <c r="P263" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q263" s="29">
         <v>0.1</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="P264" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q264" s="29">
         <v>0.1</v>
@@ -24146,7 +24146,7 @@
         <v>0</v>
       </c>
       <c r="P265" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q265" s="29">
         <v>0.1</v>
@@ -24199,7 +24199,7 @@
         <v>0</v>
       </c>
       <c r="P266" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q266" s="29">
         <v>0.1</v>
@@ -24252,7 +24252,7 @@
         <v>0</v>
       </c>
       <c r="P267" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q267" s="29">
         <v>0.1</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="P268" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q268" s="29">
         <v>0.1</v>
@@ -24358,7 +24358,7 @@
         <v>0</v>
       </c>
       <c r="P269" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q269" s="29">
         <v>0.1</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="P270" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q270" s="29">
         <v>0.1</v>
@@ -24464,7 +24464,7 @@
         <v>0</v>
       </c>
       <c r="P271" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q271" s="29">
         <v>0.1</v>
@@ -24517,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="P272" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q272" s="29">
         <v>0.1</v>
@@ -24570,7 +24570,7 @@
         <v>0</v>
       </c>
       <c r="P273" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q273" s="29">
         <v>0.1</v>
@@ -24623,7 +24623,7 @@
         <v>0</v>
       </c>
       <c r="P274" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q274" s="29">
         <v>0.1</v>
@@ -24676,7 +24676,7 @@
         <v>0</v>
       </c>
       <c r="P275" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q275" s="29">
         <v>0.1</v>
@@ -24729,7 +24729,7 @@
         <v>0</v>
       </c>
       <c r="P276" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q276" s="29">
         <v>0.1</v>
@@ -24782,7 +24782,7 @@
         <v>0</v>
       </c>
       <c r="P277" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q277" s="29">
         <v>0.1</v>
@@ -24835,7 +24835,7 @@
         <v>0</v>
       </c>
       <c r="P278" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q278" s="29">
         <v>0.1</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="P279" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q279" s="29">
         <v>0.1</v>
@@ -24941,7 +24941,7 @@
         <v>0</v>
       </c>
       <c r="P280" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q280" s="29">
         <v>0.1</v>
@@ -24994,7 +24994,7 @@
         <v>0</v>
       </c>
       <c r="P281" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q281" s="29">
         <v>0.1</v>
@@ -25047,7 +25047,7 @@
         <v>0</v>
       </c>
       <c r="P282" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q282" s="29">
         <v>0.1</v>
@@ -25100,7 +25100,7 @@
         <v>0</v>
       </c>
       <c r="P283" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q283" s="29">
         <v>0.1</v>
@@ -25153,7 +25153,7 @@
         <v>0</v>
       </c>
       <c r="P284" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q284" s="29">
         <v>0.1</v>
@@ -25206,7 +25206,7 @@
         <v>0</v>
       </c>
       <c r="P285" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q285" s="29">
         <v>0.1</v>
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="P286" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q286" s="29">
         <v>0.1</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="P287" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q287" s="29">
         <v>0.1</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="P288" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q288" s="29">
         <v>0.1</v>
@@ -25418,7 +25418,7 @@
         <v>0</v>
       </c>
       <c r="P289" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q289" s="29">
         <v>0.1</v>
@@ -25471,7 +25471,7 @@
         <v>0</v>
       </c>
       <c r="P290" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q290" s="29">
         <v>0.1</v>
@@ -25524,7 +25524,7 @@
         <v>0</v>
       </c>
       <c r="P291" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q291" s="29">
         <v>0.1</v>
@@ -25577,7 +25577,7 @@
         <v>0</v>
       </c>
       <c r="P292" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q292" s="29">
         <v>0.1</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="P293" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q293" s="29">
         <v>0.1</v>
@@ -25683,7 +25683,7 @@
         <v>0</v>
       </c>
       <c r="P294" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q294" s="29">
         <v>0.1</v>
@@ -25736,7 +25736,7 @@
         <v>0</v>
       </c>
       <c r="P295" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q295" s="29">
         <v>0.1</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="P296" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q296" s="29">
         <v>0.1</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="P297" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q297" s="29">
         <v>0.1</v>
@@ -25895,7 +25895,7 @@
         <v>0</v>
       </c>
       <c r="P298" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q298" s="29">
         <v>0.1</v>
@@ -25948,7 +25948,7 @@
         <v>0</v>
       </c>
       <c r="P299" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q299" s="29">
         <v>0.1</v>
@@ -26001,7 +26001,7 @@
         <v>0</v>
       </c>
       <c r="P300" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q300" s="29">
         <v>0.1</v>
@@ -26054,7 +26054,7 @@
         <v>0</v>
       </c>
       <c r="P301" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q301" s="29">
         <v>0.1</v>
@@ -26107,7 +26107,7 @@
         <v>0</v>
       </c>
       <c r="P302" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q302" s="29">
         <v>0.1</v>
@@ -26160,7 +26160,7 @@
         <v>0</v>
       </c>
       <c r="P303" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q303" s="29">
         <v>0.1</v>
@@ -26213,7 +26213,7 @@
         <v>0</v>
       </c>
       <c r="P304" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q304" s="29">
         <v>0.1</v>
@@ -26266,7 +26266,7 @@
         <v>0</v>
       </c>
       <c r="P305" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q305" s="29">
         <v>0.1</v>
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="P306" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q306" s="29">
         <v>0.1</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="P307" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q307" s="29">
         <v>0.1</v>
@@ -26425,7 +26425,7 @@
         <v>0</v>
       </c>
       <c r="P308" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q308" s="29">
         <v>0.1</v>
@@ -26478,7 +26478,7 @@
         <v>0</v>
       </c>
       <c r="P309" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q309" s="29">
         <v>0.1</v>
@@ -26531,7 +26531,7 @@
         <v>0</v>
       </c>
       <c r="P310" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q310" s="29">
         <v>0.1</v>
@@ -26584,7 +26584,7 @@
         <v>0</v>
       </c>
       <c r="P311" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q311" s="29">
         <v>0.1</v>
@@ -26637,7 +26637,7 @@
         <v>0</v>
       </c>
       <c r="P312" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q312" s="29">
         <v>0.1</v>
@@ -26690,7 +26690,7 @@
         <v>0</v>
       </c>
       <c r="P313" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q313" s="29">
         <v>0.1</v>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="P314" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q314" s="29">
         <v>0.1</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="P315" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q315" s="29">
         <v>0.1</v>
@@ -26849,7 +26849,7 @@
         <v>0</v>
       </c>
       <c r="P316" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q316" s="29">
         <v>0.1</v>
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="P317" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q317" s="29">
         <v>0.1</v>
@@ -26955,7 +26955,7 @@
         <v>0</v>
       </c>
       <c r="P318" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q318" s="29">
         <v>0.1</v>
@@ -27008,7 +27008,7 @@
         <v>0</v>
       </c>
       <c r="P319" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q319" s="29">
         <v>0.1</v>
@@ -27061,7 +27061,7 @@
         <v>0</v>
       </c>
       <c r="P320" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q320" s="29">
         <v>0.1</v>
@@ -27114,7 +27114,7 @@
         <v>0</v>
       </c>
       <c r="P321" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q321" s="29">
         <v>0.1</v>
@@ -27167,7 +27167,7 @@
         <v>0</v>
       </c>
       <c r="P322" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q322" s="29">
         <v>0.1</v>
@@ -27220,7 +27220,7 @@
         <v>0</v>
       </c>
       <c r="P323" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q323" s="29">
         <v>0.1</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P324" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q324" s="29">
         <v>0.1</v>
@@ -27326,7 +27326,7 @@
         <v>0</v>
       </c>
       <c r="P325" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q325" s="29">
         <v>0.1</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="P326" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q326" s="29">
         <v>0.1</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="P327" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q327" s="29">
         <v>0.1</v>
@@ -27485,7 +27485,7 @@
         <v>0</v>
       </c>
       <c r="P328" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q328" s="29">
         <v>0.1</v>
@@ -27538,7 +27538,7 @@
         <v>0</v>
       </c>
       <c r="P329" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q329" s="29">
         <v>0.1</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="P330" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q330" s="29">
         <v>0.1</v>
@@ -27644,7 +27644,7 @@
         <v>0</v>
       </c>
       <c r="P331" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q331" s="29">
         <v>0.1</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="P332" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q332" s="29">
         <v>0.1</v>
@@ -27750,7 +27750,7 @@
         <v>0</v>
       </c>
       <c r="P333" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q333" s="29">
         <v>0.1</v>
@@ -27803,7 +27803,7 @@
         <v>0</v>
       </c>
       <c r="P334" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q334" s="29">
         <v>0.1</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="P335" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q335" s="29">
         <v>0.1</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="P336" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q336" s="29">
         <v>0.1</v>
@@ -27962,7 +27962,7 @@
         <v>0</v>
       </c>
       <c r="P337" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q337" s="29">
         <v>0.1</v>
@@ -28015,7 +28015,7 @@
         <v>0</v>
       </c>
       <c r="P338" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q338" s="29">
         <v>0.1</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="P339" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q339" s="29">
         <v>0.1</v>
@@ -28121,7 +28121,7 @@
         <v>0</v>
       </c>
       <c r="P340" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q340" s="29">
         <v>0.1</v>
@@ -28174,7 +28174,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P341" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q341" s="29">
         <v>0.1</v>
@@ -28227,7 +28227,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P342" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q342" s="29">
         <v>0.1</v>
@@ -28280,7 +28280,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P343" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q343" s="29">
         <v>0.1</v>
@@ -28333,7 +28333,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P344" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q344" s="29">
         <v>0.1</v>
@@ -28386,7 +28386,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P345" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q345" s="29">
         <v>0.1</v>
@@ -28439,7 +28439,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P346" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q346" s="29">
         <v>0.1</v>
@@ -28492,7 +28492,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P347" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q347" s="29">
         <v>0.1</v>
@@ -28545,7 +28545,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P348" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q348" s="29">
         <v>0.1</v>
@@ -28598,7 +28598,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P349" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q349" s="29">
         <v>0.1</v>
@@ -28651,7 +28651,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P350" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q350" s="29">
         <v>0.1</v>
@@ -28704,7 +28704,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P351" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q351" s="29">
         <v>0.1</v>
@@ -28757,7 +28757,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P352" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q352" s="29">
         <v>0.1</v>
@@ -28810,7 +28810,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P353" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q353" s="29">
         <v>0.1</v>
@@ -28863,7 +28863,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P354" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q354" s="29">
         <v>0.1</v>
@@ -28916,7 +28916,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P355" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q355" s="29">
         <v>0.1</v>
@@ -28969,7 +28969,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P356" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q356" s="29">
         <v>0.1</v>
@@ -29022,7 +29022,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P357" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q357" s="29">
         <v>0.1</v>
@@ -29075,7 +29075,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P358" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q358" s="29">
         <v>0.1</v>
@@ -29128,7 +29128,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P359" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q359" s="29">
         <v>0.1</v>
@@ -29181,7 +29181,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P360" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q360" s="29">
         <v>0.1</v>
@@ -29234,7 +29234,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P361" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q361" s="29">
         <v>0.1</v>
@@ -29287,7 +29287,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P362" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q362" s="29">
         <v>0.1</v>
@@ -29340,7 +29340,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P363" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q363" s="29">
         <v>0.1</v>
@@ -29393,7 +29393,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P364" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q364" s="29">
         <v>0.1</v>
@@ -29446,7 +29446,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P365" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q365" s="29">
         <v>0.1</v>
@@ -29499,7 +29499,7 @@
         <v>0.53923320000000041</v>
       </c>
       <c r="P366" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q366" s="29">
         <v>0.1</v>
@@ -29552,10 +29552,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P367" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q367" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="368" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -29605,10 +29605,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P368" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q368" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="369" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -29658,10 +29658,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P369" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q369" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="370" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -29711,10 +29711,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P370" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q370" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="371" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -29764,10 +29764,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P371" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q371" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="372" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -29817,10 +29817,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P372" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q372" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="373" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -29870,10 +29870,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P373" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q373" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="374" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -29923,10 +29923,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P374" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q374" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -29976,10 +29976,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P375" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q375" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="376" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30029,10 +30029,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P376" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q376" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="377" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30082,10 +30082,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P377" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q377" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="378" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30135,10 +30135,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P378" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q378" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="379" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30188,10 +30188,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P379" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q379" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="380" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30241,10 +30241,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P380" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q380" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="381" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30294,10 +30294,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P381" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q381" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="382" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30347,10 +30347,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P382" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q382" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30400,10 +30400,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P383" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q383" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30453,10 +30453,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P384" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q384" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="385" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30506,10 +30506,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P385" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q385" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="386" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30559,10 +30559,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P386" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q386" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30612,10 +30612,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P387" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q387" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="388" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30665,10 +30665,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P388" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q388" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="389" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30718,10 +30718,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P389" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q389" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="390" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30771,10 +30771,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P390" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q390" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30824,10 +30824,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P391" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q391" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="392" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -30877,10 +30877,10 @@
         <v>10.784663999999999</v>
       </c>
       <c r="P392" s="10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q392" s="29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/H2CS2/inputs/input_final.xlsx
+++ b/H2CS2/inputs/input_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22a94a39b5425449/Documents/02_School/04_ETH/02_Spring_2023_Semester/06_Case_Study/02_Model/Case-Study-ETH/H2CS2/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{8A885617-DCA3-4DF5-BD45-CE59E6F03888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DEB1749-D7E6-4008-ACA3-C806A2AAC749}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="8_{8A885617-DCA3-4DF5-BD45-CE59E6F03888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{473F9F92-39DF-4C74-92E3-8EE73CD13AFD}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="1" activeTab="1" xr2:uid="{B45309CD-61A4-4A28-84F6-A1F6AFA13388}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="1" activeTab="8" xr2:uid="{B45309CD-61A4-4A28-84F6-A1F6AFA13388}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="6" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3841" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3847" uniqueCount="965">
   <si>
     <t>name</t>
   </si>
@@ -3502,7 +3502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AEC0D1-82CD-48E8-B8DB-D7E4638515D1}">
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -10080,9 +10080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859B5229-E94A-4079-9757-A01BBA7C9852}">
   <dimension ref="A1:XEW392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3:P392"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -30895,7 +30895,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -31308,7 +31308,7 @@
   <dimension ref="A1:Q412"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -42162,7 +42162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC100551-67EA-4544-94EF-22E0A8082156}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -45945,8 +45945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03903C7-1A75-4899-99E1-0F471DE44DCA}">
   <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:C45"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -46137,85 +46137,85 @@
         <v>523</v>
       </c>
       <c r="C3" s="20">
-        <v>7.8606908500297806E-2</v>
+        <v>4.470000992185752E-2</v>
       </c>
       <c r="D3" s="20">
-        <v>8.6942532922586913E-2</v>
+        <v>4.9440083046343633E-2</v>
       </c>
       <c r="E3" s="20">
-        <v>7.1997311088718569E-2</v>
+        <v>4.094144625978504E-2</v>
       </c>
       <c r="F3" s="20">
-        <v>7.3328251469646805E-2</v>
+        <v>4.1698288748160818E-2</v>
       </c>
       <c r="G3" s="20">
-        <v>6.01906999315686E-2</v>
+        <v>3.4227588076873317E-2</v>
       </c>
       <c r="H3" s="20">
-        <v>0.14410338673969961</v>
+        <v>8.1944741752735889E-2</v>
       </c>
       <c r="I3" s="20">
-        <v>7.5842508272731535E-2</v>
+        <v>4.312802700130125E-2</v>
       </c>
       <c r="J3" s="20">
-        <v>5.0931845523221858E-2</v>
+        <v>2.8962517972805229E-2</v>
       </c>
       <c r="K3" s="20">
-        <v>6.6682823258957899E-2</v>
+        <v>3.7919349814928754E-2</v>
       </c>
       <c r="L3" s="20">
-        <v>0.11722074370704723</v>
+        <v>6.6657861334575658E-2</v>
       </c>
       <c r="M3" s="20">
-        <v>8.5084717851977493E-2</v>
+        <v>4.8383631982771999E-2</v>
       </c>
       <c r="N3" s="20">
-        <v>7.3328251469646805E-2</v>
+        <v>4.1698288748160818E-2</v>
       </c>
       <c r="O3" s="20">
-        <v>0.11243513121734003</v>
+        <v>6.39365111396209E-2</v>
       </c>
       <c r="P3" s="20">
-        <v>7.7797100003804881E-2</v>
+        <v>4.4239510348491121E-2</v>
       </c>
       <c r="Q3" s="20">
-        <v>7.7797100003804881E-2</v>
+        <v>4.4239510348491121E-2</v>
       </c>
       <c r="R3" s="20">
-        <v>8.0889779069674483E-2</v>
+        <v>4.5998169829788098E-2</v>
       </c>
       <c r="S3" s="20">
-        <v>7.2290633643263852E-2</v>
+        <v>4.1108244844650248E-2</v>
       </c>
       <c r="T3" s="20">
-        <v>6.3667463638875418E-2</v>
+        <v>3.6204658224746902E-2</v>
       </c>
       <c r="U3" s="20">
-        <v>7.0336189956217043E-2</v>
+        <v>3.9996845683056545E-2</v>
       </c>
       <c r="V3" s="20">
-        <v>7.8304176745202292E-2</v>
+        <v>4.4527860772188572E-2</v>
       </c>
       <c r="W3" s="20">
-        <v>8.3937619935821828E-2</v>
+        <v>4.7731331959634644E-2</v>
       </c>
       <c r="X3" s="20">
-        <v>9.2602563992878181E-2</v>
+        <v>5.2658673496304952E-2</v>
       </c>
       <c r="Y3" s="20">
-        <v>6.9808590827033792E-2</v>
+        <v>3.9696825153573874E-2</v>
       </c>
       <c r="Z3" s="20">
-        <v>8.4419959967323918E-2</v>
+        <v>4.8005615793017702E-2</v>
       </c>
       <c r="AA3" s="20">
-        <v>6.6098434749469082E-2</v>
+        <v>3.7587035866056558E-2</v>
       </c>
       <c r="AB3" s="20">
-        <v>0.11243513121734003</v>
+        <v>6.39365111396209E-2</v>
       </c>
       <c r="AC3" s="20">
-        <v>7.2290633643263852E-2</v>
+        <v>4.1108244844650248E-2</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -46226,85 +46226,85 @@
         <v>524</v>
       </c>
       <c r="C4" s="20">
-        <v>6.8106896435898581E-2</v>
+        <v>3.8729152494529857E-2</v>
       </c>
       <c r="D4" s="20">
-        <v>7.532907983031667E-2</v>
+        <v>4.2836064667354207E-2</v>
       </c>
       <c r="E4" s="20">
-        <v>6.2380183924469583E-2</v>
+        <v>3.5472643480700214E-2</v>
       </c>
       <c r="F4" s="20">
-        <v>6.3533342348018218E-2</v>
+        <v>3.6128389826123555E-2</v>
       </c>
       <c r="G4" s="20">
-        <v>5.2150655010533335E-2</v>
+        <v>2.9655596955493763E-2</v>
       </c>
       <c r="H4" s="20">
-        <v>0.1248546040543724</v>
+        <v>7.099887460907961E-2</v>
       </c>
       <c r="I4" s="20">
-        <v>6.571175428365994E-2</v>
+        <v>3.7367149077630175E-2</v>
       </c>
       <c r="J4" s="20">
-        <v>4.4128563182536489E-2</v>
+        <v>2.5093814904185226E-2</v>
       </c>
       <c r="K4" s="20">
-        <v>5.7775585179437115E-2</v>
+        <v>3.2854227192412468E-2</v>
       </c>
       <c r="L4" s="20">
-        <v>0.10156284230112715</v>
+        <v>5.7753957574037333E-2</v>
       </c>
       <c r="M4" s="20">
-        <v>7.3719424635562775E-2</v>
+        <v>4.1920730321442411E-2</v>
       </c>
       <c r="N4" s="20">
-        <v>6.3533342348018218E-2</v>
+        <v>3.6128389826123555E-2</v>
       </c>
       <c r="O4" s="20">
-        <v>9.7416473738399664E-2</v>
+        <v>5.5396114994680654E-2</v>
       </c>
       <c r="P4" s="20">
-        <v>6.7405259080406552E-2</v>
+        <v>3.8330164703883937E-2</v>
       </c>
       <c r="Q4" s="20">
-        <v>6.7405259080406552E-2</v>
+        <v>3.8330164703883937E-2</v>
       </c>
       <c r="R4" s="20">
-        <v>7.0084829831466605E-2</v>
+        <v>3.9853909136070197E-2</v>
       </c>
       <c r="S4" s="20">
-        <v>6.2634325567053756E-2</v>
+        <v>3.5617161744575541E-2</v>
       </c>
       <c r="T4" s="20">
-        <v>5.516300583647555E-2</v>
+        <v>3.1368577587561522E-2</v>
       </c>
       <c r="U4" s="20">
-        <v>6.094094903917531E-2</v>
+        <v>3.4654219058725982E-2</v>
       </c>
       <c r="V4" s="20">
-        <v>6.7844602438010743E-2</v>
+        <v>3.8579998373960596E-2</v>
       </c>
       <c r="W4" s="20">
-        <v>7.2725551699100041E-2</v>
+        <v>4.1355562056101185E-2</v>
       </c>
       <c r="X4" s="20">
-        <v>8.0233065463167691E-2</v>
+        <v>4.5624728038389302E-2</v>
       </c>
       <c r="Y4" s="20">
-        <v>6.0483824596343196E-2</v>
+        <v>3.4394274131238578E-2</v>
       </c>
       <c r="Z4" s="20">
-        <v>7.314346258249621E-2</v>
+        <v>4.1593208097532648E-2</v>
       </c>
       <c r="AA4" s="20">
-        <v>5.7269257065872735E-2</v>
+        <v>3.2566302477755139E-2</v>
       </c>
       <c r="AB4" s="20">
-        <v>9.7416473738399664E-2</v>
+        <v>5.5396114994680654E-2</v>
       </c>
       <c r="AC4" s="20">
-        <v>6.2634325567053756E-2</v>
+        <v>3.5617161744575541E-2</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -46315,85 +46315,85 @@
         <v>525</v>
       </c>
       <c r="C5" s="20">
-        <v>4.8697783225948497E-2</v>
+        <v>2.7692113007651453E-2</v>
       </c>
       <c r="D5" s="20">
-        <v>5.3861787750665566E-2</v>
+        <v>3.0628636754676759E-2</v>
       </c>
       <c r="E5" s="20">
-        <v>4.4603070075403269E-2</v>
+        <v>2.536364440421008E-2</v>
       </c>
       <c r="F5" s="20">
-        <v>4.5427601244401712E-2</v>
+        <v>2.5832516061145571E-2</v>
       </c>
       <c r="G5" s="20">
-        <v>3.7288753792862075E-2</v>
+        <v>2.1204340640216403E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>8.9273520908767556E-2</v>
+        <v>5.0765605040502843E-2</v>
       </c>
       <c r="I5" s="20">
-        <v>4.698520903113363E-2</v>
+        <v>2.6718253521753318E-2</v>
       </c>
       <c r="J5" s="20">
-        <v>3.1552798855815037E-2</v>
+        <v>1.7942575898554303E-2</v>
       </c>
       <c r="K5" s="20">
-        <v>4.1310690547595653E-2</v>
+        <v>2.3491424768973267E-2</v>
       </c>
       <c r="L5" s="20">
-        <v>7.2619448793214247E-2</v>
+        <v>4.1295226380314944E-2</v>
       </c>
       <c r="M5" s="20">
-        <v>5.2710852326432522E-2</v>
+        <v>2.99741545232271E-2</v>
       </c>
       <c r="N5" s="20">
-        <v>4.5427601244401712E-2</v>
+        <v>2.5832516061145571E-2</v>
       </c>
       <c r="O5" s="20">
-        <v>6.9654712943994709E-2</v>
+        <v>3.9609322120700174E-2</v>
       </c>
       <c r="P5" s="20">
-        <v>4.8196098585639904E-2</v>
+        <v>2.7406828815367608E-2</v>
       </c>
       <c r="Q5" s="20">
-        <v>4.8196098585639904E-2</v>
+        <v>2.7406828815367608E-2</v>
       </c>
       <c r="R5" s="20">
-        <v>5.011204487599142E-2</v>
+        <v>2.8496336338591655E-2</v>
       </c>
       <c r="S5" s="20">
-        <v>4.4784786395877491E-2</v>
+        <v>2.5466977832316218E-2</v>
       </c>
       <c r="T5" s="20">
-        <v>3.9442644444160624E-2</v>
+        <v>2.2429155803673394E-2</v>
       </c>
       <c r="U5" s="20">
-        <v>4.3573988556158745E-2</v>
+        <v>2.4778454692539177E-2</v>
       </c>
       <c r="V5" s="20">
-        <v>4.8510237809565718E-2</v>
+        <v>2.7585464849963413E-2</v>
       </c>
       <c r="W5" s="20">
-        <v>5.2000213443341554E-2</v>
+        <v>2.9570047991993857E-2</v>
       </c>
       <c r="X5" s="20">
-        <v>5.736823484764221E-2</v>
+        <v>3.2622586434363381E-2</v>
       </c>
       <c r="Y5" s="20">
-        <v>4.3247135503248428E-2</v>
+        <v>2.4592588908133914E-2</v>
       </c>
       <c r="Z5" s="20">
-        <v>5.2299028022663133E-2</v>
+        <v>2.9739969630120863E-2</v>
       </c>
       <c r="AA5" s="20">
-        <v>4.0948655893164314E-2</v>
+        <v>2.3285552881197963E-2</v>
       </c>
       <c r="AB5" s="20">
-        <v>6.9654712943994709E-2</v>
+        <v>3.9609322120700174E-2</v>
       </c>
       <c r="AC5" s="20">
-        <v>4.4784786395877491E-2</v>
+        <v>2.5466977832316218E-2</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -46404,85 +46404,85 @@
         <v>526</v>
       </c>
       <c r="C6" s="20">
-        <v>5.8815976669824112E-2</v>
+        <v>3.3445848346712652E-2</v>
       </c>
       <c r="D6" s="20">
-        <v>6.5052933457762363E-2</v>
+        <v>3.6992509010793852E-2</v>
       </c>
       <c r="E6" s="20">
-        <v>5.3870483524588654E-2</v>
+        <v>3.0633581627691819E-2</v>
       </c>
       <c r="F6" s="20">
-        <v>5.4866331852516541E-2</v>
+        <v>3.1199873204199667E-2</v>
       </c>
       <c r="G6" s="20">
-        <v>4.5036433444041513E-2</v>
+        <v>2.5610077539000336E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>0.10782234786008286</v>
+        <v>6.1313440651662533E-2</v>
       </c>
       <c r="I6" s="20">
-        <v>5.6747571966057175E-2</v>
+        <v>3.2269644975472724E-2</v>
       </c>
       <c r="J6" s="20">
-        <v>3.8108689111384583E-2</v>
+        <v>2.1670598855588127E-2</v>
       </c>
       <c r="K6" s="20">
-        <v>4.9894029060588416E-2</v>
+        <v>2.8372361114307149E-2</v>
       </c>
       <c r="L6" s="20">
-        <v>8.7707971966191789E-2</v>
+        <v>4.987535182228825E-2</v>
       </c>
       <c r="M6" s="20">
-        <v>6.3662862153159444E-2</v>
+        <v>3.6202041578690163E-2</v>
       </c>
       <c r="N6" s="20">
-        <v>5.4866331852516541E-2</v>
+        <v>3.1199873204199667E-2</v>
       </c>
       <c r="O6" s="20">
-        <v>8.4127237423700887E-2</v>
+        <v>4.7839158405824415E-2</v>
       </c>
       <c r="P6" s="20">
-        <v>5.8210054384551034E-2</v>
+        <v>3.3101289163807265E-2</v>
       </c>
       <c r="Q6" s="20">
-        <v>5.8210054384551034E-2</v>
+        <v>3.3101289163807265E-2</v>
       </c>
       <c r="R6" s="20">
-        <v>6.0524086869173564E-2</v>
+        <v>3.4417169370719813E-2</v>
       </c>
       <c r="S6" s="20">
-        <v>5.4089955996589049E-2</v>
+        <v>3.0758385183297304E-2</v>
       </c>
       <c r="T6" s="20">
-        <v>4.7637849235564141E-2</v>
+        <v>2.7089378963142945E-2</v>
       </c>
       <c r="U6" s="20">
-        <v>5.2627584348944427E-2</v>
+        <v>2.9926803985075905E-2</v>
       </c>
       <c r="V6" s="20">
-        <v>5.8589463960132135E-2</v>
+        <v>3.3317041342801286E-2</v>
       </c>
       <c r="W6" s="20">
-        <v>6.2804570107818924E-2</v>
+        <v>3.5713971717217019E-2</v>
       </c>
       <c r="X6" s="20">
-        <v>6.928793343081778E-2</v>
+        <v>3.940075205744574E-2</v>
       </c>
       <c r="Y6" s="20">
-        <v>5.2232819325550288E-2</v>
+        <v>2.9702319893293392E-2</v>
       </c>
       <c r="Z6" s="20">
-        <v>6.3165470957133485E-2</v>
+        <v>3.5919198863951923E-2</v>
       </c>
       <c r="AA6" s="20">
-        <v>4.9456772570084441E-2</v>
+        <v>2.8123714146288423E-2</v>
       </c>
       <c r="AB6" s="20">
-        <v>8.4127237423700887E-2</v>
+        <v>4.7839158405824415E-2</v>
       </c>
       <c r="AC6" s="20">
-        <v>5.4089955996589049E-2</v>
+        <v>3.0758385183297304E-2</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -46493,85 +46493,85 @@
         <v>527</v>
       </c>
       <c r="C7" s="20">
-        <v>6.0184160060033701E-2</v>
+        <v>3.4223869163000797E-2</v>
       </c>
       <c r="D7" s="20">
-        <v>6.6566201587967277E-2</v>
+        <v>3.785303261775308E-2</v>
       </c>
       <c r="E7" s="20">
-        <v>5.5123624336899879E-2</v>
+        <v>3.1346183201936204E-2</v>
       </c>
       <c r="F7" s="20">
-        <v>5.6142638192607536E-2</v>
+        <v>3.1925647912222702E-2</v>
       </c>
       <c r="G7" s="20">
-        <v>4.6084075661024897E-2</v>
+        <v>2.6205821836634641E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>0.11033052257362549</v>
+        <v>6.2739720309775315E-2</v>
       </c>
       <c r="I7" s="20">
-        <v>5.8067639910087718E-2</v>
+        <v>3.3020304826132892E-2</v>
       </c>
       <c r="J7" s="20">
-        <v>3.8995177416382976E-2</v>
+        <v>2.2174702588771945E-2</v>
       </c>
       <c r="K7" s="20">
-        <v>5.1054669173980508E-2</v>
+        <v>2.9032361940877445E-2</v>
       </c>
       <c r="L7" s="20">
-        <v>8.9748243967569252E-2</v>
+        <v>5.1035557463812942E-2</v>
       </c>
       <c r="M7" s="20">
-        <v>6.5143794299540744E-2</v>
+        <v>3.7044177249711895E-2</v>
       </c>
       <c r="N7" s="20">
-        <v>5.6142638192607536E-2</v>
+        <v>3.1925647912222702E-2</v>
       </c>
       <c r="O7" s="20">
-        <v>8.6084214004290088E-2</v>
+        <v>4.8951997903498454E-2</v>
       </c>
       <c r="P7" s="20">
-        <v>5.9564142747296878E-2</v>
+        <v>3.3871294808407594E-2</v>
       </c>
       <c r="Q7" s="20">
-        <v>5.9564142747296878E-2</v>
+        <v>3.3871294808407594E-2</v>
       </c>
       <c r="R7" s="20">
-        <v>6.1932004497182461E-2</v>
+        <v>3.5217785158083048E-2</v>
       </c>
       <c r="S7" s="20">
-        <v>5.5348202200458843E-2</v>
+        <v>3.1473889950882794E-2</v>
       </c>
       <c r="T7" s="20">
-        <v>4.8746005858301092E-2</v>
+        <v>2.7719534924958007E-2</v>
       </c>
       <c r="U7" s="20">
-        <v>5.3851812710861979E-2</v>
+        <v>3.0622964424003821E-2</v>
       </c>
       <c r="V7" s="20">
-        <v>5.9952378188038911E-2</v>
+        <v>3.409206583711584E-2</v>
       </c>
       <c r="W7" s="20">
-        <v>6.426553657502812E-2</v>
+        <v>3.6544753856162286E-2</v>
       </c>
       <c r="X7" s="20">
-        <v>7.0899716572567939E-2</v>
+        <v>4.0317296465598389E-2</v>
       </c>
       <c r="Y7" s="20">
-        <v>5.3447864622276638E-2</v>
+        <v>3.0393258359840112E-2</v>
       </c>
       <c r="Z7" s="20">
-        <v>6.4634832737580736E-2</v>
+        <v>3.6754755018212099E-2</v>
       </c>
       <c r="AA7" s="20">
-        <v>5.0607241177340931E-2</v>
+        <v>2.8777930921127699E-2</v>
       </c>
       <c r="AB7" s="20">
-        <v>8.6084214004290088E-2</v>
+        <v>4.8951997903498454E-2</v>
       </c>
       <c r="AC7" s="20">
-        <v>5.5348202200458843E-2</v>
+        <v>3.1473889950882794E-2</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -46582,85 +46582,85 @@
         <v>528</v>
       </c>
       <c r="C8" s="20">
-        <v>5.1704604862571911E-2</v>
+        <v>2.9401949452749827E-2</v>
       </c>
       <c r="D8" s="20">
-        <v>5.71874584089066E-2</v>
+        <v>3.2519787472296467E-2</v>
       </c>
       <c r="E8" s="20">
-        <v>4.7357065581529113E-2</v>
+        <v>2.6929710654584368E-2</v>
       </c>
       <c r="F8" s="20">
-        <v>4.8232507038322631E-2</v>
+        <v>2.7427532570638062E-2</v>
       </c>
       <c r="G8" s="20">
-        <v>3.9591130292976714E-2</v>
+        <v>2.2513592643156909E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>9.4785672314111252E-2</v>
+        <v>5.3900103358913508E-2</v>
       </c>
       <c r="I8" s="20">
-        <v>4.9886288582549586E-2</v>
+        <v>2.8367959472622762E-2</v>
       </c>
       <c r="J8" s="20">
-        <v>3.3501011526102215E-2</v>
+        <v>1.9050431777295488E-2</v>
       </c>
       <c r="K8" s="20">
-        <v>4.3861399634003879E-2</v>
+        <v>2.4941891701784753E-2</v>
       </c>
       <c r="L8" s="20">
-        <v>7.7103302377636823E-2</v>
+        <v>4.3844980639014562E-2</v>
       </c>
       <c r="M8" s="20">
-        <v>5.5965459020224012E-2</v>
+        <v>3.1824894544426025E-2</v>
       </c>
       <c r="N8" s="20">
-        <v>4.8232507038322631E-2</v>
+        <v>2.7427532570638062E-2</v>
       </c>
       <c r="O8" s="20">
-        <v>7.395551031296399E-2</v>
+        <v>4.2054981016751244E-2</v>
       </c>
       <c r="P8" s="20">
-        <v>5.1171943940976704E-2</v>
+        <v>2.909905052268694E-2</v>
       </c>
       <c r="Q8" s="20">
-        <v>5.1171943940976704E-2</v>
+        <v>2.909905052268694E-2</v>
       </c>
       <c r="R8" s="20">
-        <v>5.320618943056913E-2</v>
+        <v>3.025582917361087E-2</v>
       </c>
       <c r="S8" s="20">
-        <v>4.7550001890428566E-2</v>
+        <v>2.7039424356428522E-2</v>
       </c>
       <c r="T8" s="20">
-        <v>4.1878011905756955E-2</v>
+        <v>2.3814033440685573E-2</v>
       </c>
       <c r="U8" s="20">
-        <v>4.6264443909675247E-2</v>
+        <v>2.6308388680415656E-2</v>
       </c>
       <c r="V8" s="20">
-        <v>5.1505479542988758E-2</v>
+        <v>2.9288716354910517E-2</v>
       </c>
       <c r="W8" s="20">
-        <v>5.5210942074766435E-2</v>
+        <v>3.1395836646187537E-2</v>
       </c>
       <c r="X8" s="20">
-        <v>6.0910409426604764E-2</v>
+        <v>3.4636852633675594E-2</v>
       </c>
       <c r="Y8" s="20">
-        <v>4.5917409469309826E-2</v>
+        <v>2.6111046700893568E-2</v>
       </c>
       <c r="Z8" s="20">
-        <v>5.5528206819227433E-2</v>
+        <v>3.157625001564613E-2</v>
       </c>
       <c r="AA8" s="20">
-        <v>4.3477011320739632E-2</v>
+        <v>2.4723308351484279E-2</v>
       </c>
       <c r="AB8" s="20">
-        <v>7.395551031296399E-2</v>
+        <v>4.2054981016751244E-2</v>
       </c>
       <c r="AC8" s="20">
-        <v>4.7550001890428566E-2</v>
+        <v>2.7039424356428522E-2</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -46671,85 +46671,85 @@
         <v>529</v>
       </c>
       <c r="C9" s="20">
-        <v>6.3175072587468628E-2</v>
+        <v>3.59246588544214E-2</v>
       </c>
       <c r="D9" s="20">
-        <v>6.9874276105159408E-2</v>
+        <v>3.9734177246919765E-2</v>
       </c>
       <c r="E9" s="20">
-        <v>5.7863048438231417E-2</v>
+        <v>3.2903963387493698E-2</v>
       </c>
       <c r="F9" s="20">
-        <v>5.8932703215132047E-2</v>
+        <v>3.3512225180924227E-2</v>
       </c>
       <c r="G9" s="20">
-        <v>4.8374270274895548E-2</v>
+        <v>2.7508146580300333E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>0.1158135091567187</v>
+        <v>6.5857633980998628E-2</v>
       </c>
       <c r="I9" s="20">
-        <v>6.0953369834247512E-2</v>
+        <v>3.466128217408769E-2</v>
       </c>
       <c r="J9" s="20">
-        <v>4.0933082083123656E-2</v>
+        <v>2.3276696796197038E-2</v>
       </c>
       <c r="K9" s="20">
-        <v>5.3591882445116736E-2</v>
+        <v>3.0475154445472996E-2</v>
       </c>
       <c r="L9" s="20">
-        <v>9.4208373458952555E-2</v>
+        <v>5.3571820959239014E-2</v>
       </c>
       <c r="M9" s="20">
-        <v>6.8381180852095241E-2</v>
+        <v>3.8885124995666383E-2</v>
       </c>
       <c r="N9" s="20">
-        <v>5.8932703215132047E-2</v>
+        <v>3.3512225180924227E-2</v>
       </c>
       <c r="O9" s="20">
-        <v>9.0362255831624619E-2</v>
+        <v>5.1384716805390522E-2</v>
       </c>
       <c r="P9" s="20">
-        <v>6.2524242889113374E-2</v>
+        <v>3.5554562961719945E-2</v>
       </c>
       <c r="Q9" s="20">
-        <v>6.2524242889113374E-2</v>
+        <v>3.5554562961719945E-2</v>
       </c>
       <c r="R9" s="20">
-        <v>6.5009777916550771E-2</v>
+        <v>3.6967968507202693E-2</v>
       </c>
       <c r="S9" s="20">
-        <v>5.8098786925197488E-2</v>
+        <v>3.3038016652116198E-2</v>
       </c>
       <c r="T9" s="20">
-        <v>5.1168487777772567E-2</v>
+        <v>2.9097085167065356E-2</v>
       </c>
       <c r="U9" s="20">
-        <v>5.6528032850867813E-2</v>
+        <v>3.2144803523055557E-2</v>
       </c>
       <c r="V9" s="20">
-        <v>6.2931772081602569E-2</v>
+        <v>3.5786305429338354E-2</v>
       </c>
       <c r="W9" s="20">
-        <v>6.7459277224276151E-2</v>
+        <v>3.8360882252926366E-2</v>
       </c>
       <c r="X9" s="20">
-        <v>7.4423149487091542E-2</v>
+        <v>4.2320905171792551E-2</v>
       </c>
       <c r="Y9" s="20">
-        <v>5.6104010154655173E-2</v>
+        <v>3.1903681984384105E-2</v>
       </c>
       <c r="Z9" s="20">
-        <v>6.7846925932046817E-2</v>
+        <v>3.858131963450178E-2</v>
       </c>
       <c r="AA9" s="20">
-        <v>5.3122219062971411E-2</v>
+        <v>3.0208079219613559E-2</v>
       </c>
       <c r="AB9" s="20">
-        <v>9.0362255831624619E-2</v>
+        <v>5.1384716805390522E-2</v>
       </c>
       <c r="AC9" s="20">
-        <v>5.8098786925197488E-2</v>
+        <v>3.3038016652116198E-2</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -46760,85 +46760,85 @@
         <v>530</v>
       </c>
       <c r="C10" s="20">
-        <v>5.8577340031996855E-2</v>
+        <v>3.3310147041546112E-2</v>
       </c>
       <c r="D10" s="20">
-        <v>6.4788991342028951E-2</v>
+        <v>3.6842417683998638E-2</v>
       </c>
       <c r="E10" s="20">
-        <v>5.3651912452673908E-2</v>
+        <v>3.0509290655439895E-2</v>
       </c>
       <c r="F10" s="20">
-        <v>5.464372028157044E-2</v>
+        <v>3.1073284592335184E-2</v>
       </c>
       <c r="G10" s="20">
-        <v>4.4853705150381624E-2</v>
+        <v>2.5506168649878074E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>0.10738487552632543</v>
+        <v>6.1064670943852165E-2</v>
       </c>
       <c r="I10" s="20">
-        <v>5.6517327557214642E-2</v>
+        <v>3.213871593175293E-2</v>
       </c>
       <c r="J10" s="20">
-        <v>3.7954069058187184E-2</v>
+        <v>2.1582673785846763E-2</v>
       </c>
       <c r="K10" s="20">
-        <v>4.9691591831508397E-2</v>
+        <v>2.8257244691068141E-2</v>
       </c>
       <c r="L10" s="20">
-        <v>8.7352110570602701E-2</v>
+        <v>4.9672990373185108E-2</v>
       </c>
       <c r="M10" s="20">
-        <v>6.3404560034604568E-2</v>
+        <v>3.6055157450023585E-2</v>
       </c>
       <c r="N10" s="20">
-        <v>5.464372028157044E-2</v>
+        <v>3.1073284592335184E-2</v>
       </c>
       <c r="O10" s="20">
-        <v>8.3785904299179523E-2</v>
+        <v>4.7645058493439418E-2</v>
       </c>
       <c r="P10" s="20">
-        <v>5.7973876181746528E-2</v>
+        <v>3.2966985853702557E-2</v>
       </c>
       <c r="Q10" s="20">
-        <v>5.7973876181746528E-2</v>
+        <v>3.2966985853702557E-2</v>
       </c>
       <c r="R10" s="20">
-        <v>6.0278519841032475E-2</v>
+        <v>3.4277527082226221E-2</v>
       </c>
       <c r="S10" s="20">
-        <v>5.3870494449402458E-2</v>
+        <v>3.0633587840113788E-2</v>
       </c>
       <c r="T10" s="20">
-        <v>4.7444566103691417E-2</v>
+        <v>2.6979468039570548E-2</v>
       </c>
       <c r="U10" s="20">
-        <v>5.2414056146284388E-2</v>
+        <v>2.9805380652704754E-2</v>
       </c>
       <c r="V10" s="20">
-        <v>5.835174636224142E-2</v>
+        <v>3.3181862651932473E-2</v>
       </c>
       <c r="W10" s="20">
-        <v>6.2549750375166163E-2</v>
+        <v>3.556906785577308E-2</v>
       </c>
       <c r="X10" s="20">
-        <v>6.900680846423346E-2</v>
+        <v>3.9240889660674939E-2</v>
       </c>
       <c r="Y10" s="20">
-        <v>5.2020892820307321E-2</v>
+        <v>2.9581807370058499E-2</v>
       </c>
       <c r="Z10" s="20">
-        <v>6.2909186925660138E-2</v>
+        <v>3.5773462325418177E-2</v>
       </c>
       <c r="AA10" s="20">
-        <v>4.9256109440911799E-2</v>
+        <v>2.8009606569281576E-2</v>
       </c>
       <c r="AB10" s="20">
-        <v>8.3785904299179523E-2</v>
+        <v>4.7645058493439418E-2</v>
       </c>
       <c r="AC10" s="20">
-        <v>5.3870494449402458E-2</v>
+        <v>3.0633587840113788E-2</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -46849,85 +46849,85 @@
         <v>531</v>
       </c>
       <c r="C11" s="20">
-        <v>5.6906883567206072E-2</v>
+        <v>3.2360237905380347E-2</v>
       </c>
       <c r="D11" s="20">
-        <v>6.2941396531895052E-2</v>
+        <v>3.579177839643214E-2</v>
       </c>
       <c r="E11" s="20">
-        <v>5.212191494927066E-2</v>
+        <v>2.96392538496764E-2</v>
       </c>
       <c r="F11" s="20">
-        <v>5.3085439284947709E-2</v>
+        <v>3.0187164309283802E-2</v>
       </c>
       <c r="G11" s="20">
-        <v>4.357460709476238E-2</v>
+        <v>2.4778806426022239E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>0.10432256919002339</v>
+        <v>5.9323282989179583E-2</v>
       </c>
       <c r="I11" s="20">
-        <v>5.4905616695316892E-2</v>
+        <v>3.1222212625714351E-2</v>
       </c>
       <c r="J11" s="20">
-        <v>3.6871728685805426E-2</v>
+        <v>2.0967198297657218E-2</v>
       </c>
       <c r="K11" s="20">
-        <v>4.8274531227948274E-2</v>
+        <v>2.7451429728395097E-2</v>
       </c>
       <c r="L11" s="20">
-        <v>8.4861080801479055E-2</v>
+        <v>4.8256460229463102E-2</v>
       </c>
       <c r="M11" s="20">
-        <v>6.1596445204720407E-2</v>
+        <v>3.5026968549357516E-2</v>
       </c>
       <c r="N11" s="20">
-        <v>5.3085439284947709E-2</v>
+        <v>3.0187164309283802E-2</v>
       </c>
       <c r="O11" s="20">
-        <v>8.1396572427529928E-2</v>
+        <v>4.6286359106744383E-2</v>
       </c>
       <c r="P11" s="20">
-        <v>5.632062876211498E-2</v>
+        <v>3.2026862682969601E-2</v>
       </c>
       <c r="Q11" s="20">
-        <v>5.632062876211498E-2</v>
+        <v>3.2026862682969601E-2</v>
       </c>
       <c r="R11" s="20">
-        <v>5.8559550644044861E-2</v>
+        <v>3.3300031062771109E-2</v>
       </c>
       <c r="S11" s="20">
-        <v>5.2334263619096308E-2</v>
+        <v>2.9760006437829178E-2</v>
       </c>
       <c r="T11" s="20">
-        <v>4.6091584180582353E-2</v>
+        <v>2.6210091574563787E-2</v>
       </c>
       <c r="U11" s="20">
-        <v>5.0919358727664114E-2</v>
+        <v>2.8955417326106712E-2</v>
       </c>
       <c r="V11" s="20">
-        <v>5.6687723177006405E-2</v>
+        <v>3.2235611815850745E-2</v>
       </c>
       <c r="W11" s="20">
-        <v>6.0766012246596786E-2</v>
+        <v>3.4554740825665481E-2</v>
       </c>
       <c r="X11" s="20">
-        <v>6.7038933698143149E-2</v>
+        <v>3.812185288327926E-2</v>
       </c>
       <c r="Y11" s="20">
-        <v>5.0537407283606547E-2</v>
+        <v>2.8738219707414248E-2</v>
       </c>
       <c r="Z11" s="20">
-        <v>6.1115198705346631E-2</v>
+        <v>3.4753306555681915E-2</v>
       </c>
       <c r="AA11" s="20">
-        <v>4.7851467536703288E-2</v>
+        <v>2.7210853530233621E-2</v>
       </c>
       <c r="AB11" s="20">
-        <v>8.1396572427529928E-2</v>
+        <v>4.6286359106744383E-2</v>
       </c>
       <c r="AC11" s="20">
-        <v>5.2334263619096308E-2</v>
+        <v>2.9760006437829178E-2</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -46938,85 +46938,85 @@
         <v>532</v>
       </c>
       <c r="C12" s="20">
-        <v>5.8784158451447147E-2</v>
+        <v>3.3427754839357116E-2</v>
       </c>
       <c r="D12" s="20">
-        <v>6.5017741175664584E-2</v>
+        <v>3.6972496833887827E-2</v>
       </c>
       <c r="E12" s="20">
-        <v>5.3841340715000026E-2</v>
+        <v>3.0617009498058231E-2</v>
       </c>
       <c r="F12" s="20">
-        <v>5.4836650309723733E-2</v>
+        <v>3.1182994722617739E-2</v>
       </c>
       <c r="G12" s="20">
-        <v>4.501206967155353E-2</v>
+        <v>2.5596223020450701E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>0.10776401821558187</v>
+        <v>6.1280271357287822E-2</v>
       </c>
       <c r="I12" s="20">
-        <v>5.6716872711544838E-2</v>
+        <v>3.225218776964342E-2</v>
       </c>
       <c r="J12" s="20">
-        <v>3.8088073104291596E-2</v>
+        <v>2.1658875512955946E-2</v>
       </c>
       <c r="K12" s="20">
-        <v>4.9867037430044413E-2</v>
+        <v>2.8357012257875281E-2</v>
       </c>
       <c r="L12" s="20">
-        <v>8.7660523780113256E-2</v>
+        <v>4.9848370295741171E-2</v>
       </c>
       <c r="M12" s="20">
-        <v>6.3628421870685459E-2</v>
+        <v>3.618245702820129E-2</v>
       </c>
       <c r="N12" s="20">
-        <v>5.4836650309723733E-2</v>
+        <v>3.1182994722617739E-2</v>
       </c>
       <c r="O12" s="20">
-        <v>8.4081726340431373E-2</v>
+        <v>4.7813278417506419E-2</v>
       </c>
       <c r="P12" s="20">
-        <v>5.8178563957510435E-2</v>
+        <v>3.3083382055793302E-2</v>
       </c>
       <c r="Q12" s="20">
-        <v>5.8178563957510435E-2</v>
+        <v>3.3083382055793302E-2</v>
       </c>
       <c r="R12" s="20">
-        <v>6.0491344598754757E-2</v>
+        <v>3.4398550398920667E-2</v>
       </c>
       <c r="S12" s="20">
-        <v>5.4060694456964174E-2</v>
+        <v>3.0741745537539503E-2</v>
       </c>
       <c r="T12" s="20">
-        <v>4.7612078151314442E-2</v>
+        <v>2.707472417333329E-2</v>
       </c>
       <c r="U12" s="20">
-        <v>5.2599113921923089E-2</v>
+        <v>2.9910614207426418E-2</v>
       </c>
       <c r="V12" s="20">
-        <v>5.8557768280413376E-2</v>
+        <v>3.3299017517352113E-2</v>
       </c>
       <c r="W12" s="20">
-        <v>6.2770594143465225E-2</v>
+        <v>3.5694651202357826E-2</v>
       </c>
       <c r="X12" s="20">
-        <v>6.9250450101939878E-2</v>
+        <v>3.9379437071209639E-2</v>
       </c>
       <c r="Y12" s="20">
-        <v>5.2204562458184563E-2</v>
+        <v>2.9686251556862074E-2</v>
       </c>
       <c r="Z12" s="20">
-        <v>6.3131299752937034E-2</v>
+        <v>3.5899767325480753E-2</v>
       </c>
       <c r="AA12" s="20">
-        <v>4.9430017486194758E-2</v>
+        <v>2.8108499802687512E-2</v>
       </c>
       <c r="AB12" s="20">
-        <v>8.4081726340431373E-2</v>
+        <v>4.7813278417506419E-2</v>
       </c>
       <c r="AC12" s="20">
-        <v>5.4060694456964174E-2</v>
+        <v>3.0741745537539503E-2</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -47027,85 +47027,85 @@
         <v>533</v>
       </c>
       <c r="C13" s="20">
-        <v>6.5227347672783015E-2</v>
+        <v>3.7091690078853622E-2</v>
       </c>
       <c r="D13" s="20">
-        <v>7.214417830046678E-2</v>
+        <v>4.102496265735861E-2</v>
       </c>
       <c r="E13" s="20">
-        <v>5.9742759656698258E-2</v>
+        <v>3.3972865748860277E-2</v>
       </c>
       <c r="F13" s="20">
-        <v>6.0847162725268543E-2</v>
+        <v>3.4600887242958782E-2</v>
       </c>
       <c r="G13" s="20">
-        <v>4.9945733600370627E-2</v>
+        <v>2.8401763026751792E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>0.11957577122703265</v>
+        <v>6.7997053468167798E-2</v>
       </c>
       <c r="I13" s="20">
-        <v>6.2933471750293318E-2</v>
+        <v>3.5787271950077942E-2</v>
       </c>
       <c r="J13" s="20">
-        <v>4.2262814540621252E-2</v>
+        <v>2.4032852395972765E-2</v>
       </c>
       <c r="K13" s="20">
-        <v>5.5332842615204887E-2</v>
+        <v>3.1465155685328448E-2</v>
       </c>
       <c r="L13" s="20">
-        <v>9.726878146101875E-2</v>
+        <v>5.5312129421526052E-2</v>
       </c>
       <c r="M13" s="20">
-        <v>7.0602579071667212E-2</v>
+        <v>4.0148328502198988E-2</v>
       </c>
       <c r="N13" s="20">
-        <v>6.0847162725268543E-2</v>
+        <v>3.4600887242958782E-2</v>
       </c>
       <c r="O13" s="20">
-        <v>9.3297720702508427E-2</v>
+        <v>5.3053976051901576E-2</v>
       </c>
       <c r="P13" s="20">
-        <v>6.4555375433232143E-2</v>
+        <v>3.6709571428620441E-2</v>
       </c>
       <c r="Q13" s="20">
-        <v>6.4555375433232143E-2</v>
+        <v>3.6709571428620441E-2</v>
       </c>
       <c r="R13" s="20">
-        <v>6.7121654358564126E-2</v>
+        <v>3.8168892188247552E-2</v>
       </c>
       <c r="S13" s="20">
-        <v>5.9986156231002188E-2</v>
+        <v>3.4111273803494442E-2</v>
       </c>
       <c r="T13" s="20">
-        <v>5.2830722711877998E-2</v>
+        <v>3.0042319109787951E-2</v>
       </c>
       <c r="U13" s="20">
-        <v>5.8364375393744151E-2</v>
+        <v>3.3189044181447441E-2</v>
       </c>
       <c r="V13" s="20">
-        <v>6.4976143423462737E-2</v>
+        <v>3.6948842170810188E-2</v>
       </c>
       <c r="W13" s="20">
-        <v>6.9650726925089959E-2</v>
+        <v>3.960705546134427E-2</v>
       </c>
       <c r="X13" s="20">
-        <v>7.6840824199716773E-2</v>
+        <v>4.3695721784021514E-2</v>
       </c>
       <c r="Y13" s="20">
-        <v>5.7926578099744705E-2</v>
+        <v>3.2940089684204192E-2</v>
       </c>
       <c r="Z13" s="20">
-        <v>7.0050968602717686E-2</v>
+        <v>3.9834653865892043E-2</v>
       </c>
       <c r="AA13" s="20">
-        <v>5.4847921973856149E-2</v>
+        <v>3.1189404381872472E-2</v>
       </c>
       <c r="AB13" s="20">
-        <v>9.3297720702508427E-2</v>
+        <v>5.3053976051901576E-2</v>
       </c>
       <c r="AC13" s="20">
-        <v>5.9986156231002188E-2</v>
+        <v>3.4111273803494442E-2</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -47116,85 +47116,85 @@
         <v>534</v>
       </c>
       <c r="C14" s="20">
-        <v>5.0861422075582273E-2</v>
+        <v>2.8922471507828059E-2</v>
       </c>
       <c r="D14" s="20">
-        <v>5.6254862933315192E-2</v>
+        <v>3.19894647842867E-2</v>
       </c>
       <c r="E14" s="20">
-        <v>4.6584781127430329E-2</v>
+        <v>2.6490549219294224E-2</v>
       </c>
       <c r="F14" s="20">
-        <v>4.7445946154313058E-2</v>
+        <v>2.6980252808716888E-2</v>
       </c>
       <c r="G14" s="20">
-        <v>3.8945490322045098E-2</v>
+        <v>2.2146447901591582E-2</v>
       </c>
       <c r="H14" s="20">
-        <v>9.323993673483498E-2</v>
+        <v>5.3021117057983534E-2</v>
       </c>
       <c r="I14" s="20">
-        <v>4.9072758337972623E-2</v>
+        <v>2.7905343518146143E-2</v>
       </c>
       <c r="J14" s="20">
-        <v>3.2954687338138083E-2</v>
+        <v>1.8739763197542666E-2</v>
       </c>
       <c r="K14" s="20">
-        <v>4.3146121424587812E-2</v>
+        <v>2.4535147006340258E-2</v>
       </c>
       <c r="L14" s="20">
-        <v>7.5845925446555357E-2</v>
+        <v>4.3129970185516779E-2</v>
       </c>
       <c r="M14" s="20">
-        <v>5.5052791534663435E-2</v>
+        <v>3.1305903956470774E-2</v>
       </c>
       <c r="N14" s="20">
-        <v>4.7445946154313058E-2</v>
+        <v>2.6980252808716888E-2</v>
       </c>
       <c r="O14" s="20">
-        <v>7.2749466606321811E-2</v>
+        <v>4.1369161326324226E-2</v>
       </c>
       <c r="P14" s="20">
-        <v>5.0337447624400768E-2</v>
+        <v>2.8624512160316962E-2</v>
       </c>
       <c r="Q14" s="20">
-        <v>5.0337447624400768E-2</v>
+        <v>2.8624512160316962E-2</v>
       </c>
       <c r="R14" s="20">
-        <v>5.2338519264470619E-2</v>
+        <v>2.9762426420933526E-2</v>
       </c>
       <c r="S14" s="20">
-        <v>4.6774571090369269E-2</v>
+        <v>2.6598473743846763E-2</v>
       </c>
       <c r="T14" s="20">
-        <v>4.1195078173139991E-2</v>
+        <v>2.3425681510729778E-2</v>
       </c>
       <c r="U14" s="20">
-        <v>4.5509977593609773E-2</v>
+        <v>2.5879359572704264E-2</v>
       </c>
       <c r="V14" s="20">
-        <v>5.0665544030441552E-2</v>
+        <v>2.8811084980507357E-2</v>
       </c>
       <c r="W14" s="20">
-        <v>5.4310579019393318E-2</v>
+        <v>3.0883843002418938E-2</v>
       </c>
       <c r="X14" s="20">
-        <v>5.9917101211340126E-2</v>
+        <v>3.4072005498418725E-2</v>
       </c>
       <c r="Y14" s="20">
-        <v>4.5168602484118005E-2</v>
+        <v>2.5685235785463612E-2</v>
       </c>
       <c r="Z14" s="20">
-        <v>5.4622669908021566E-2</v>
+        <v>3.1061314246160206E-2</v>
       </c>
       <c r="AA14" s="20">
-        <v>4.2768001597662954E-2</v>
+        <v>2.4320128246060072E-2</v>
       </c>
       <c r="AB14" s="20">
-        <v>7.2749466606321811E-2</v>
+        <v>4.1369161326324226E-2</v>
       </c>
       <c r="AC14" s="20">
-        <v>4.6774571090369269E-2</v>
+        <v>2.6598473743846763E-2</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -47205,85 +47205,85 @@
         <v>523</v>
       </c>
       <c r="C15" s="21">
-        <v>8.3230844294432949E-2</v>
+        <v>4.7329422270202065E-2</v>
       </c>
       <c r="D15" s="21">
-        <v>8.6942532922586913E-2</v>
+        <v>4.9440083046343633E-2</v>
       </c>
       <c r="E15" s="21">
-        <v>7.6232447035113754E-2</v>
+        <v>4.3349766628007672E-2</v>
       </c>
       <c r="F15" s="21">
-        <v>7.7641678026684841E-2</v>
+        <v>4.4151129262758507E-2</v>
       </c>
       <c r="G15" s="21">
-        <v>6.3731329339307918E-2</v>
+        <v>3.6240975610807039E-2</v>
       </c>
       <c r="H15" s="21">
-        <v>0.1525800565479172</v>
+        <v>8.6765020679367394E-2</v>
       </c>
       <c r="I15" s="21">
-        <v>8.0303832288774551E-2</v>
+        <v>4.5664969766083668E-2</v>
       </c>
       <c r="J15" s="21">
-        <v>5.3927836436352544E-2</v>
+        <v>3.0666195500617294E-2</v>
       </c>
       <c r="K15" s="21">
-        <v>7.0605342274190699E-2</v>
+        <v>4.0149899804042204E-2</v>
       </c>
       <c r="L15" s="21">
-        <v>0.12411608157216765</v>
+        <v>7.05789120013154E-2</v>
       </c>
       <c r="M15" s="21">
-        <v>9.0089701255034974E-2</v>
+        <v>5.122972798175858E-2</v>
       </c>
       <c r="N15" s="21">
-        <v>7.7641678026684841E-2</v>
+        <v>4.4151129262758507E-2</v>
       </c>
       <c r="O15" s="21">
-        <v>0.11904896246541885</v>
+        <v>6.7697482383128005E-2</v>
       </c>
       <c r="P15" s="21">
-        <v>8.2373400004028693E-2</v>
+        <v>4.684183448663766E-2</v>
       </c>
       <c r="Q15" s="21">
-        <v>8.2373400004028693E-2</v>
+        <v>4.684183448663766E-2</v>
       </c>
       <c r="R15" s="21">
-        <v>8.5648001367890622E-2</v>
+        <v>4.8703944525657981E-2</v>
       </c>
       <c r="S15" s="21">
-        <v>7.6543023857573486E-2</v>
+        <v>4.3526376894335556E-2</v>
       </c>
       <c r="T15" s="21">
-        <v>6.7412608558809248E-2</v>
+        <v>3.8334344002673174E-2</v>
       </c>
       <c r="U15" s="21">
-        <v>7.447361289481802E-2</v>
+        <v>4.234960131147162E-2</v>
       </c>
       <c r="V15" s="21">
-        <v>8.29103047890377E-2</v>
+        <v>4.7147146699964358E-2</v>
       </c>
       <c r="W15" s="21">
-        <v>8.29103047890377E-2</v>
+        <v>4.7147146699964358E-2</v>
       </c>
       <c r="X15" s="21">
-        <v>9.8049773639518056E-2</v>
+        <v>5.575624252549935E-2</v>
       </c>
       <c r="Y15" s="21">
-        <v>7.3914978522741648E-2</v>
+        <v>4.2031932515548806E-2</v>
       </c>
       <c r="Z15" s="21">
-        <v>8.9385839965401781E-2</v>
+        <v>5.082947554554814E-2</v>
       </c>
       <c r="AA15" s="21">
-        <v>8.0607847255450102E-2</v>
+        <v>4.5837848617142143E-2</v>
       </c>
       <c r="AB15" s="21">
-        <v>0.11904896246541885</v>
+        <v>6.7697482383128005E-2</v>
       </c>
       <c r="AC15" s="21">
-        <v>7.6543023857573486E-2</v>
+        <v>4.3526376894335556E-2</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -47294,85 +47294,85 @@
         <v>524</v>
       </c>
       <c r="C16" s="21">
-        <v>7.2113184461539664E-2</v>
+        <v>4.1007337935384545E-2</v>
       </c>
       <c r="D16" s="21">
-        <v>7.532907983031667E-2</v>
+        <v>4.2836064667354207E-2</v>
       </c>
       <c r="E16" s="21">
-        <v>6.6049606508261902E-2</v>
+        <v>3.7559269567800223E-2</v>
       </c>
       <c r="F16" s="21">
-        <v>6.7270597780254571E-2</v>
+        <v>3.8253589227660229E-2</v>
       </c>
       <c r="G16" s="21">
-        <v>5.5218340599388238E-2</v>
+        <v>3.1400043835228694E-2</v>
       </c>
       <c r="H16" s="21">
-        <v>0.132198992528159</v>
+        <v>7.5175278997848996E-2</v>
       </c>
       <c r="I16" s="21">
-        <v>6.9577151594463454E-2</v>
+        <v>3.9565216670431939E-2</v>
       </c>
       <c r="J16" s="21">
-        <v>4.6724361016803335E-2</v>
+        <v>2.656992166325494E-2</v>
       </c>
       <c r="K16" s="21">
-        <v>6.1174149013521646E-2</v>
+        <v>3.4786828791966144E-2</v>
       </c>
       <c r="L16" s="21">
-        <v>0.10753712714236992</v>
+        <v>6.1151249196039523E-2</v>
       </c>
       <c r="M16" s="21">
-        <v>7.8055861378831165E-2</v>
+        <v>4.4386655634468433E-2</v>
       </c>
       <c r="N16" s="21">
-        <v>6.7270597780254571E-2</v>
+        <v>3.8253589227660229E-2</v>
       </c>
       <c r="O16" s="21">
-        <v>0.10314685454654082</v>
+        <v>5.8654709994367747E-2</v>
       </c>
       <c r="P16" s="21">
-        <v>7.1370274320430457E-2</v>
+        <v>4.0584880274700634E-2</v>
       </c>
       <c r="Q16" s="21">
-        <v>7.1370274320430457E-2</v>
+        <v>4.0584880274700634E-2</v>
       </c>
       <c r="R16" s="21">
-        <v>7.4207466880376396E-2</v>
+        <v>4.2198256732309619E-2</v>
       </c>
       <c r="S16" s="21">
-        <v>6.6318697659233386E-2</v>
+        <v>3.7712288906021157E-2</v>
       </c>
       <c r="T16" s="21">
-        <v>5.8407888532738809E-2</v>
+        <v>3.3213788033888671E-2</v>
       </c>
       <c r="U16" s="21">
-        <v>6.4525710747362075E-2</v>
+        <v>3.6692702532768677E-2</v>
       </c>
       <c r="V16" s="21">
-        <v>7.1835461404952533E-2</v>
+        <v>4.0849410043017093E-2</v>
       </c>
       <c r="W16" s="21">
-        <v>7.1835461404952533E-2</v>
+        <v>4.0849410043017093E-2</v>
       </c>
       <c r="X16" s="21">
-        <v>8.4952657549236366E-2</v>
+        <v>4.8308535570059249E-2</v>
       </c>
       <c r="Y16" s="21">
-        <v>6.4041696631422201E-2</v>
+        <v>3.641746672719378E-2</v>
       </c>
       <c r="Z16" s="21">
-        <v>7.7446019204995969E-2</v>
+        <v>4.4039867397387501E-2</v>
       </c>
       <c r="AA16" s="21">
-        <v>6.9840557397405773E-2</v>
+        <v>3.9715003021652609E-2</v>
       </c>
       <c r="AB16" s="21">
-        <v>0.10314685454654082</v>
+        <v>5.8654709994367747E-2</v>
       </c>
       <c r="AC16" s="21">
-        <v>6.6318697659233386E-2</v>
+        <v>3.7712288906021157E-2</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -47383,85 +47383,85 @@
         <v>525</v>
       </c>
       <c r="C17" s="21">
-        <v>5.1562358709827824E-2</v>
+        <v>2.9321060831630951E-2</v>
       </c>
       <c r="D17" s="21">
-        <v>5.3861787750665566E-2</v>
+        <v>3.0628636754676759E-2</v>
       </c>
       <c r="E17" s="21">
-        <v>4.7226780079838743E-2</v>
+        <v>2.6855623486810667E-2</v>
       </c>
       <c r="F17" s="21">
-        <v>4.8099813082307694E-2</v>
+        <v>2.735207582944825E-2</v>
       </c>
       <c r="G17" s="21">
-        <v>3.9482209898324544E-2</v>
+        <v>2.2451654795523246E-2</v>
       </c>
       <c r="H17" s="21">
-        <v>9.4524904491636225E-2</v>
+        <v>5.3751817101708892E-2</v>
       </c>
       <c r="I17" s="21">
-        <v>4.9749044856494423E-2</v>
+        <v>2.8289915493621157E-2</v>
       </c>
       <c r="J17" s="21">
-        <v>3.3408845847333564E-2</v>
+        <v>1.8998021539645728E-2</v>
       </c>
       <c r="K17" s="21">
-        <v>4.3740731168042453E-2</v>
+        <v>2.4873273284795223E-2</v>
       </c>
       <c r="L17" s="21">
-        <v>7.6891181075168027E-2</v>
+        <v>4.3724357343862881E-2</v>
       </c>
       <c r="M17" s="21">
-        <v>5.5811490698575605E-2</v>
+        <v>3.1737340083416922E-2</v>
       </c>
       <c r="N17" s="21">
-        <v>4.8099813082307694E-2</v>
+        <v>2.735207582944825E-2</v>
       </c>
       <c r="O17" s="21">
-        <v>7.3752048999523812E-2</v>
+        <v>4.1939282245447247E-2</v>
       </c>
       <c r="P17" s="21">
-        <v>5.1031163208324598E-2</v>
+        <v>2.9018995216271579E-2</v>
       </c>
       <c r="Q17" s="21">
-        <v>5.1031163208324598E-2</v>
+        <v>2.9018995216271579E-2</v>
       </c>
       <c r="R17" s="21">
-        <v>5.305981222163797E-2</v>
+        <v>3.0172591417332337E-2</v>
       </c>
       <c r="S17" s="21">
-        <v>4.7419185595634988E-2</v>
+        <v>2.6965035351864227E-2</v>
       </c>
       <c r="T17" s="21">
-        <v>4.1762799999699479E-2</v>
+        <v>2.3748517909771828E-2</v>
       </c>
       <c r="U17" s="21">
-        <v>4.613716435357984E-2</v>
+        <v>2.6236010850923829E-2</v>
       </c>
       <c r="V17" s="21">
-        <v>5.1363781210128398E-2</v>
+        <v>2.9208139252902429E-2</v>
       </c>
       <c r="W17" s="21">
-        <v>5.1363781210128398E-2</v>
+        <v>2.9208139252902429E-2</v>
       </c>
       <c r="X17" s="21">
-        <v>6.0742836897503504E-2</v>
+        <v>3.4541562106972984E-2</v>
       </c>
       <c r="Y17" s="21">
-        <v>4.5791084650498325E-2</v>
+        <v>2.603921178508296E-2</v>
       </c>
       <c r="Z17" s="21">
-        <v>5.5375441435760953E-2</v>
+        <v>3.148937960836326E-2</v>
       </c>
       <c r="AA17" s="21">
-        <v>4.9937385235566241E-2</v>
+        <v>2.8397015708778003E-2</v>
       </c>
       <c r="AB17" s="21">
-        <v>7.3752048999523812E-2</v>
+        <v>4.1939282245447247E-2</v>
       </c>
       <c r="AC17" s="21">
-        <v>4.7419185595634988E-2</v>
+        <v>2.6965035351864227E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -47472,85 +47472,85 @@
         <v>526</v>
       </c>
       <c r="C18" s="21">
-        <v>6.2275740003343176E-2</v>
+        <v>3.5413251190636923E-2</v>
       </c>
       <c r="D18" s="21">
-        <v>6.5052933457762363E-2</v>
+        <v>3.6992509010793852E-2</v>
       </c>
       <c r="E18" s="21">
-        <v>5.7039335496623274E-2</v>
+        <v>3.2435557017556037E-2</v>
       </c>
       <c r="F18" s="21">
-        <v>5.8093763137958686E-2</v>
+        <v>3.3035159863270235E-2</v>
       </c>
       <c r="G18" s="21">
-        <v>4.7685635411338072E-2</v>
+        <v>2.7116552688353297E-2</v>
       </c>
       <c r="H18" s="21">
-        <v>0.11416483891067596</v>
+        <v>6.4920113631172088E-2</v>
       </c>
       <c r="I18" s="21">
-        <v>6.0085664434648765E-2</v>
+        <v>3.4167859385794641E-2</v>
       </c>
       <c r="J18" s="21">
-        <v>4.0350376706171906E-2</v>
+        <v>2.294533996474037E-2</v>
       </c>
       <c r="K18" s="21">
-        <v>5.2828971946505376E-2</v>
+        <v>3.0041323532795802E-2</v>
       </c>
       <c r="L18" s="21">
-        <v>9.2867264434791305E-2</v>
+        <v>5.2809196047128734E-2</v>
       </c>
       <c r="M18" s="21">
-        <v>6.7407736397462933E-2</v>
+        <v>3.8331573436260168E-2</v>
       </c>
       <c r="N18" s="21">
-        <v>5.8093763137958686E-2</v>
+        <v>3.3035159863270235E-2</v>
       </c>
       <c r="O18" s="21">
-        <v>8.9075898448624471E-2</v>
+        <v>5.0653226547343499E-2</v>
       </c>
       <c r="P18" s="21">
-        <v>6.163417523070109E-2</v>
+        <v>3.5048423820501808E-2</v>
       </c>
       <c r="Q18" s="21">
-        <v>6.163417523070109E-2</v>
+        <v>3.5048423820501808E-2</v>
       </c>
       <c r="R18" s="21">
-        <v>6.4084327273242592E-2</v>
+        <v>3.6441708745468031E-2</v>
       </c>
       <c r="S18" s="21">
-        <v>5.7271718114035461E-2</v>
+        <v>3.2567701958785382E-2</v>
       </c>
       <c r="T18" s="21">
-        <v>5.0440075661185552E-2</v>
+        <v>2.8682871843327816E-2</v>
       </c>
       <c r="U18" s="21">
-        <v>5.5723324604764674E-2</v>
+        <v>3.1687204219492122E-2</v>
       </c>
       <c r="V18" s="21">
-        <v>6.203590301661048E-2</v>
+        <v>3.5276867304142527E-2</v>
       </c>
       <c r="W18" s="21">
-        <v>6.203590301661048E-2</v>
+        <v>3.5276867304142527E-2</v>
       </c>
       <c r="X18" s="21">
-        <v>7.3363694220865874E-2</v>
+        <v>4.1718443354942542E-2</v>
       </c>
       <c r="Y18" s="21">
-        <v>5.5305338109406174E-2</v>
+        <v>3.1449515181134174E-2</v>
       </c>
       <c r="Z18" s="21">
-        <v>6.688108689578838E-2</v>
+        <v>3.8032092914772615E-2</v>
       </c>
       <c r="AA18" s="21">
-        <v>6.0313137280590783E-2</v>
+        <v>3.429721237352247E-2</v>
       </c>
       <c r="AB18" s="21">
-        <v>8.9075898448624471E-2</v>
+        <v>5.0653226547343499E-2</v>
       </c>
       <c r="AC18" s="21">
-        <v>5.7271718114035461E-2</v>
+        <v>3.2567701958785382E-2</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -47561,85 +47561,85 @@
         <v>527</v>
       </c>
       <c r="C19" s="21">
-        <v>6.3724404769447449E-2</v>
+        <v>3.6237037937294964E-2</v>
       </c>
       <c r="D19" s="21">
-        <v>6.6566201587967277E-2</v>
+        <v>3.785303261775308E-2</v>
       </c>
       <c r="E19" s="21">
-        <v>5.8366190474364567E-2</v>
+        <v>3.3190076331461857E-2</v>
       </c>
       <c r="F19" s="21">
-        <v>5.9445146321584444E-2</v>
+        <v>3.3803627201176974E-2</v>
       </c>
       <c r="G19" s="21">
-        <v>4.8794903641085179E-2</v>
+        <v>2.774734076820138E-2</v>
       </c>
       <c r="H19" s="21">
-        <v>0.1168205533132505</v>
+        <v>6.6430292092703264E-2</v>
       </c>
       <c r="I19" s="21">
-        <v>6.148338343421051E-2</v>
+        <v>3.4962675698258353E-2</v>
       </c>
       <c r="J19" s="21">
-        <v>4.1289011382052557E-2</v>
+        <v>2.3479096858699703E-2</v>
       </c>
       <c r="K19" s="21">
-        <v>5.4057885007744062E-2</v>
+        <v>3.0740147937399646E-2</v>
       </c>
       <c r="L19" s="21">
-        <v>9.5027552436249788E-2</v>
+        <v>5.4037649079331347E-2</v>
       </c>
       <c r="M19" s="21">
-        <v>6.8975782199513724E-2</v>
+        <v>3.9223246499694941E-2</v>
       </c>
       <c r="N19" s="21">
-        <v>5.9445146321584444E-2</v>
+        <v>3.3803627201176974E-2</v>
       </c>
       <c r="O19" s="21">
-        <v>9.1147991298660094E-2</v>
+        <v>5.1831527191939536E-2</v>
       </c>
       <c r="P19" s="21">
-        <v>6.3067915850079037E-2</v>
+        <v>3.5863723914784505E-2</v>
       </c>
       <c r="Q19" s="21">
-        <v>6.3067915850079037E-2</v>
+        <v>3.5863723914784505E-2</v>
       </c>
       <c r="R19" s="21">
-        <v>6.5575063585252016E-2</v>
+        <v>3.7289419579146756E-2</v>
       </c>
       <c r="S19" s="21">
-        <v>5.8603978800485831E-2</v>
+        <v>3.332529524211119E-2</v>
       </c>
       <c r="T19" s="21">
-        <v>5.1613417967612908E-2</v>
+        <v>2.9350095802896707E-2</v>
       </c>
       <c r="U19" s="21">
-        <v>5.7019566399736203E-2</v>
+        <v>3.2424315272474628E-2</v>
       </c>
       <c r="V19" s="21">
-        <v>6.3478988669688249E-2</v>
+        <v>3.6097481474593233E-2</v>
       </c>
       <c r="W19" s="21">
-        <v>6.3478988669688249E-2</v>
+        <v>3.6097481474593233E-2</v>
       </c>
       <c r="X19" s="21">
-        <v>7.5070288135660149E-2</v>
+        <v>4.2688902140045337E-2</v>
       </c>
       <c r="Y19" s="21">
-        <v>5.6591856658881133E-2</v>
+        <v>3.2181097086889522E-2</v>
       </c>
       <c r="Z19" s="21">
-        <v>6.843688172214428E-2</v>
+        <v>3.8916799431048088E-2</v>
       </c>
       <c r="AA19" s="21">
-        <v>6.1716147777245038E-2</v>
+        <v>3.5095037708692316E-2</v>
       </c>
       <c r="AB19" s="21">
-        <v>9.1147991298660094E-2</v>
+        <v>5.1831527191939536E-2</v>
       </c>
       <c r="AC19" s="21">
-        <v>5.8603978800485831E-2</v>
+        <v>3.332529524211119E-2</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -47650,85 +47650,85 @@
         <v>528</v>
       </c>
       <c r="C20" s="21">
-        <v>5.4746052207429077E-2</v>
+        <v>3.1131475891146874E-2</v>
       </c>
       <c r="D20" s="21">
-        <v>5.71874584089066E-2</v>
+        <v>3.2519787472296467E-2</v>
       </c>
       <c r="E20" s="21">
-        <v>5.0142775321619051E-2</v>
+        <v>2.851381128132462E-2</v>
       </c>
       <c r="F20" s="21">
-        <v>5.1069713334694539E-2</v>
+        <v>2.9040916839499119E-2</v>
       </c>
       <c r="G20" s="21">
-        <v>4.1920020310210637E-2</v>
+        <v>2.3837921622166136E-2</v>
       </c>
       <c r="H20" s="21">
-        <v>0.10036130009729426</v>
+        <v>5.7070697674143703E-2</v>
       </c>
       <c r="I20" s="21">
-        <v>5.2820776146228966E-2</v>
+        <v>3.0036662971012332E-2</v>
       </c>
       <c r="J20" s="21">
-        <v>3.5471659262931748E-2</v>
+        <v>2.017104541125404E-2</v>
       </c>
       <c r="K20" s="21">
-        <v>4.6441481965415865E-2</v>
+        <v>2.6409061801889733E-2</v>
       </c>
       <c r="L20" s="21">
-        <v>8.1638790752791915E-2</v>
+        <v>4.6424097147191874E-2</v>
       </c>
       <c r="M20" s="21">
-        <v>5.9257544844943062E-2</v>
+        <v>3.3696947164686381E-2</v>
       </c>
       <c r="N20" s="21">
-        <v>5.1069713334694539E-2</v>
+        <v>2.9040916839499119E-2</v>
       </c>
       <c r="O20" s="21">
-        <v>7.83058344490207E-2</v>
+        <v>4.4528803429501322E-2</v>
       </c>
       <c r="P20" s="21">
-        <v>5.4182058290445916E-2</v>
+        <v>3.0810759376962638E-2</v>
       </c>
       <c r="Q20" s="21">
-        <v>5.4182058290445916E-2</v>
+        <v>3.0810759376962638E-2</v>
       </c>
       <c r="R20" s="21">
-        <v>5.633596527942613E-2</v>
+        <v>3.2035583830882092E-2</v>
       </c>
       <c r="S20" s="21">
-        <v>5.0347060825159655E-2</v>
+        <v>2.8629978730336077E-2</v>
       </c>
       <c r="T20" s="21">
-        <v>4.434142437080147E-2</v>
+        <v>2.5214858937196483E-2</v>
       </c>
       <c r="U20" s="21">
-        <v>4.8985881786714952E-2</v>
+        <v>2.7855940955734217E-2</v>
       </c>
       <c r="V20" s="21">
-        <v>5.4535213633752792E-2</v>
+        <v>3.1011582022846422E-2</v>
       </c>
       <c r="W20" s="21">
-        <v>5.4535213633752792E-2</v>
+        <v>3.1011582022846422E-2</v>
       </c>
       <c r="X20" s="21">
-        <v>6.449337468699326E-2</v>
+        <v>3.6674314553303562E-2</v>
       </c>
       <c r="Y20" s="21">
-        <v>4.8618433555739804E-2</v>
+        <v>2.7646990624475534E-2</v>
       </c>
       <c r="Z20" s="21">
-        <v>5.8794571926240803E-2</v>
+        <v>3.3433676487154722E-2</v>
       </c>
       <c r="AA20" s="21">
-        <v>5.3020745513097114E-2</v>
+        <v>3.015037603839546E-2</v>
       </c>
       <c r="AB20" s="21">
-        <v>7.83058344490207E-2</v>
+        <v>4.4528803429501322E-2</v>
       </c>
       <c r="AC20" s="21">
-        <v>5.0347060825159655E-2</v>
+        <v>2.8629978730336077E-2</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -47739,85 +47739,85 @@
         <v>529</v>
       </c>
       <c r="C21" s="21">
-        <v>6.6891253327907962E-2</v>
+        <v>3.8037874081152077E-2</v>
       </c>
       <c r="D21" s="21">
-        <v>6.9874276105159408E-2</v>
+        <v>3.9734177246919765E-2</v>
       </c>
       <c r="E21" s="21">
-        <v>6.1266757169892071E-2</v>
+        <v>3.4839490645581554E-2</v>
       </c>
       <c r="F21" s="21">
-        <v>6.2399332816022161E-2</v>
+        <v>3.5483532544507999E-2</v>
       </c>
       <c r="G21" s="21">
-        <v>5.1219815585183522E-2</v>
+        <v>2.9126272849729764E-2</v>
       </c>
       <c r="H21" s="21">
-        <v>0.1226260685188786</v>
+        <v>6.9731612450469119E-2</v>
       </c>
       <c r="I21" s="21">
-        <v>6.4538862177438525E-2</v>
+        <v>3.6700181125504605E-2</v>
       </c>
       <c r="J21" s="21">
-        <v>4.3340910440954457E-2</v>
+        <v>2.4645914254796862E-2</v>
       </c>
       <c r="K21" s="21">
-        <v>5.6744346118358893E-2</v>
+        <v>3.2267810589324347E-2</v>
       </c>
       <c r="L21" s="21">
-        <v>9.975004248594975E-2</v>
+        <v>5.6723104545076598E-2</v>
       </c>
       <c r="M21" s="21">
-        <v>7.2403603255159668E-2</v>
+        <v>4.1172485289529111E-2</v>
       </c>
       <c r="N21" s="21">
-        <v>6.2399332816022161E-2</v>
+        <v>3.5483532544507999E-2</v>
       </c>
       <c r="O21" s="21">
-        <v>9.5677682645249604E-2</v>
+        <v>5.4407347205707612E-2</v>
       </c>
       <c r="P21" s="21">
-        <v>6.6202139529649456E-2</v>
+        <v>3.7646007841821122E-2</v>
       </c>
       <c r="Q21" s="21">
-        <v>6.6202139529649456E-2</v>
+        <v>3.7646007841821122E-2</v>
       </c>
       <c r="R21" s="21">
-        <v>6.8833882499877277E-2</v>
+        <v>3.9142554889979322E-2</v>
       </c>
       <c r="S21" s="21">
-        <v>6.1516362626679685E-2</v>
+        <v>3.4981429396358329E-2</v>
       </c>
       <c r="T21" s="21">
-        <v>5.4178398823523891E-2</v>
+        <v>3.0808678412186843E-2</v>
       </c>
       <c r="U21" s="21">
-        <v>5.9853211253860027E-2</v>
+        <v>3.4035674318529406E-2</v>
       </c>
       <c r="V21" s="21">
-        <v>6.6633641027579182E-2</v>
+        <v>3.7891382219299434E-2</v>
       </c>
       <c r="W21" s="21">
-        <v>6.6633641027579182E-2</v>
+        <v>3.7891382219299434E-2</v>
       </c>
       <c r="X21" s="21">
-        <v>7.8800981809861614E-2</v>
+        <v>4.4810370181897985E-2</v>
       </c>
       <c r="Y21" s="21">
-        <v>5.9404246046105467E-2</v>
+        <v>3.3780369159936111E-2</v>
       </c>
       <c r="Z21" s="21">
-        <v>7.1837921575108377E-2</v>
+        <v>4.0850809024766579E-2</v>
       </c>
       <c r="AA21" s="21">
-        <v>6.4783193979233433E-2</v>
+        <v>3.6839120999528734E-2</v>
       </c>
       <c r="AB21" s="21">
-        <v>9.5677682645249604E-2</v>
+        <v>5.4407347205707612E-2</v>
       </c>
       <c r="AC21" s="21">
-        <v>6.1516362626679685E-2</v>
+        <v>3.4981429396358329E-2</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -47828,85 +47828,85 @@
         <v>530</v>
       </c>
       <c r="C22" s="21">
-        <v>6.2023065916231961E-2</v>
+        <v>3.5269567455754706E-2</v>
       </c>
       <c r="D22" s="21">
-        <v>6.4788991342028951E-2</v>
+        <v>3.6842417683998638E-2</v>
       </c>
       <c r="E22" s="21">
-        <v>5.6807907302831182E-2</v>
+        <v>3.2303954811642228E-2</v>
       </c>
       <c r="F22" s="21">
-        <v>5.7858056768721633E-2</v>
+        <v>3.2901124862472542E-2</v>
       </c>
       <c r="G22" s="21">
-        <v>4.7492158394521714E-2</v>
+        <v>2.7006531511635606E-2</v>
       </c>
       <c r="H22" s="21">
-        <v>0.1137016329102269</v>
+        <v>6.4656710411137575E-2</v>
       </c>
       <c r="I22" s="21">
-        <v>5.9841876237050784E-2</v>
+        <v>3.4029228633620741E-2</v>
       </c>
       <c r="J22" s="21">
-        <v>4.0186661355727606E-2</v>
+        <v>2.2852242832073041E-2</v>
       </c>
       <c r="K22" s="21">
-        <v>5.2614626645126533E-2</v>
+        <v>2.9919435555248616E-2</v>
       </c>
       <c r="L22" s="21">
-        <v>9.2490470015932261E-2</v>
+        <v>5.2594930983372465E-2</v>
       </c>
       <c r="M22" s="21">
-        <v>6.7134240036640119E-2</v>
+        <v>3.8176049064730849E-2</v>
       </c>
       <c r="N22" s="21">
-        <v>5.7858056768721633E-2</v>
+        <v>3.2901124862472542E-2</v>
       </c>
       <c r="O22" s="21">
-        <v>8.8714486905013615E-2</v>
+        <v>5.0447708993053501E-2</v>
       </c>
       <c r="P22" s="21">
-        <v>6.1384104192437498E-2</v>
+        <v>3.4906220315685056E-2</v>
       </c>
       <c r="Q22" s="21">
-        <v>6.1384104192437498E-2</v>
+        <v>3.4906220315685056E-2</v>
       </c>
       <c r="R22" s="21">
-        <v>6.3824315125799086E-2</v>
+        <v>3.6293852204710118E-2</v>
       </c>
       <c r="S22" s="21">
-        <v>5.7039347064073188E-2</v>
+        <v>3.24355635954146E-2</v>
       </c>
       <c r="T22" s="21">
-        <v>5.0235422933320319E-2</v>
+        <v>2.856649557130999E-2</v>
       </c>
       <c r="U22" s="21">
-        <v>5.5497235919595225E-2</v>
+        <v>3.1558638338157967E-2</v>
       </c>
       <c r="V22" s="21">
-        <v>6.1784202030608547E-2</v>
+        <v>3.5133736925575546E-2</v>
       </c>
       <c r="W22" s="21">
-        <v>6.1784202030608547E-2</v>
+        <v>3.5133736925575546E-2</v>
       </c>
       <c r="X22" s="21">
-        <v>7.3066032491541297E-2</v>
+        <v>4.1549177287773457E-2</v>
       </c>
       <c r="Y22" s="21">
-        <v>5.5080945339148916E-2</v>
+        <v>3.1321913685944287E-2</v>
       </c>
       <c r="Z22" s="21">
-        <v>6.6609727333051885E-2</v>
+        <v>3.7877783638678053E-2</v>
       </c>
       <c r="AA22" s="21">
-        <v>6.0068426147453412E-2</v>
+        <v>3.41580567918068E-2</v>
       </c>
       <c r="AB22" s="21">
-        <v>8.8714486905013615E-2</v>
+        <v>5.0447708993053501E-2</v>
       </c>
       <c r="AC22" s="21">
-        <v>5.7039347064073188E-2</v>
+        <v>3.24355635954146E-2</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -47917,85 +47917,85 @@
         <v>531</v>
       </c>
       <c r="C23" s="21">
-        <v>6.0254347306453487E-2</v>
+        <v>3.4263781311579193E-2</v>
       </c>
       <c r="D23" s="21">
-        <v>6.2941396531895052E-2</v>
+        <v>3.579177839643214E-2</v>
       </c>
       <c r="E23" s="21">
-        <v>5.518790994628657E-2</v>
+        <v>3.1382739370245591E-2</v>
       </c>
       <c r="F23" s="21">
-        <v>5.6208112184062277E-2</v>
+        <v>3.1962879856888726E-2</v>
       </c>
       <c r="G23" s="21">
-        <v>4.613781927680722E-2</v>
+        <v>2.6236383274611776E-2</v>
       </c>
       <c r="H23" s="21">
-        <v>0.11045919090708356</v>
+        <v>6.2812887870896006E-2</v>
       </c>
       <c r="I23" s="21">
-        <v>5.8135358853864935E-2</v>
+        <v>3.3058813368403425E-2</v>
       </c>
       <c r="J23" s="21">
-        <v>3.9040653902617503E-2</v>
+        <v>2.2200562903401756E-2</v>
       </c>
       <c r="K23" s="21">
-        <v>5.1114209535474638E-2</v>
+        <v>2.9066219712418333E-2</v>
       </c>
       <c r="L23" s="21">
-        <v>8.9852909083918991E-2</v>
+        <v>5.1095075537078573E-2</v>
       </c>
       <c r="M23" s="21">
-        <v>6.521976551088042E-2</v>
+        <v>3.70873784640256E-2</v>
       </c>
       <c r="N23" s="21">
-        <v>5.6208112184062277E-2</v>
+        <v>3.1962879856888726E-2</v>
       </c>
       <c r="O23" s="21">
-        <v>8.6184606099737562E-2</v>
+        <v>4.9009086113023459E-2</v>
       </c>
       <c r="P23" s="21">
-        <v>5.9633606924592325E-2</v>
+        <v>3.3910795781967804E-2</v>
       </c>
       <c r="Q23" s="21">
-        <v>5.9633606924592325E-2</v>
+        <v>3.3910795781967804E-2</v>
       </c>
       <c r="R23" s="21">
-        <v>6.2004230093694553E-2</v>
+        <v>3.5258856419404697E-2</v>
       </c>
       <c r="S23" s="21">
-        <v>5.541274971433726E-2</v>
+        <v>3.1510595051819128E-2</v>
       </c>
       <c r="T23" s="21">
-        <v>4.8802853838263653E-2</v>
+        <v>2.7751861667185178E-2</v>
       </c>
       <c r="U23" s="21">
-        <v>5.3914615123409053E-2</v>
+        <v>3.0658677168818867E-2</v>
       </c>
       <c r="V23" s="21">
-        <v>6.0022295128594999E-2</v>
+        <v>3.4131824275606668E-2</v>
       </c>
       <c r="W23" s="21">
-        <v>6.0022295128594999E-2</v>
+        <v>3.4131824275606668E-2</v>
       </c>
       <c r="X23" s="21">
-        <v>7.0982400386269212E-2</v>
+        <v>4.0364314817589807E-2</v>
       </c>
       <c r="Y23" s="21">
-        <v>5.3510195947348092E-2</v>
+        <v>3.0428703219615078E-2</v>
       </c>
       <c r="Z23" s="21">
-        <v>6.471021039389642E-2</v>
+        <v>3.6797618706016139E-2</v>
       </c>
       <c r="AA23" s="21">
-        <v>5.8355448215491816E-2</v>
+        <v>3.3183967719797099E-2</v>
       </c>
       <c r="AB23" s="21">
-        <v>8.6184606099737562E-2</v>
+        <v>4.9009086113023459E-2</v>
       </c>
       <c r="AC23" s="21">
-        <v>5.541274971433726E-2</v>
+        <v>3.1510595051819128E-2</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -48006,85 +48006,85 @@
         <v>532</v>
       </c>
       <c r="C24" s="21">
-        <v>6.2242050125061683E-2</v>
+        <v>3.5394093359319298E-2</v>
       </c>
       <c r="D24" s="21">
-        <v>6.5017741175664584E-2</v>
+        <v>3.6972496833887827E-2</v>
       </c>
       <c r="E24" s="21">
-        <v>5.7008478404117657E-2</v>
+        <v>3.2418010056767532E-2</v>
       </c>
       <c r="F24" s="21">
-        <v>5.806233562206041E-2</v>
+        <v>3.3017288529830539E-2</v>
       </c>
       <c r="G24" s="21">
-        <v>4.7659838475762557E-2</v>
+        <v>2.7101883198124271E-2</v>
       </c>
       <c r="H24" s="21">
-        <v>0.11410307811061608</v>
+        <v>6.4884993201834149E-2</v>
       </c>
       <c r="I24" s="21">
-        <v>6.0053159341635701E-2</v>
+        <v>3.4149375285504789E-2</v>
       </c>
       <c r="J24" s="21">
-        <v>4.032854799277933E-2</v>
+        <v>2.2932927013718057E-2</v>
       </c>
       <c r="K24" s="21">
-        <v>5.2800392572988193E-2</v>
+        <v>3.0025071802456175E-2</v>
       </c>
       <c r="L24" s="21">
-        <v>9.2817025178943427E-2</v>
+        <v>5.2780627371961229E-2</v>
       </c>
       <c r="M24" s="21">
-        <v>6.7371270216019893E-2</v>
+        <v>3.8310836853389596E-2</v>
       </c>
       <c r="N24" s="21">
-        <v>5.806233562206041E-2</v>
+        <v>3.3017288529830539E-2</v>
       </c>
       <c r="O24" s="21">
-        <v>8.9027710242809699E-2</v>
+        <v>5.0625824206771509E-2</v>
       </c>
       <c r="P24" s="21">
-        <v>6.1600832425599279E-2</v>
+        <v>3.5029463353192909E-2</v>
       </c>
       <c r="Q24" s="21">
-        <v>6.1600832425599279E-2</v>
+        <v>3.5029463353192909E-2</v>
       </c>
       <c r="R24" s="21">
-        <v>6.4049658986916794E-2</v>
+        <v>3.6421994540033649E-2</v>
       </c>
       <c r="S24" s="21">
-        <v>5.7240735307373829E-2</v>
+        <v>3.2550083510335948E-2</v>
       </c>
       <c r="T24" s="21">
-        <v>5.0412788630803521E-2</v>
+        <v>2.8667355007058772E-2</v>
       </c>
       <c r="U24" s="21">
-        <v>5.5693179446742083E-2</v>
+        <v>3.1670062101980909E-2</v>
       </c>
       <c r="V24" s="21">
-        <v>6.2002342885143558E-2</v>
+        <v>3.5257783253666936E-2</v>
       </c>
       <c r="W24" s="21">
-        <v>6.2002342885143558E-2</v>
+        <v>3.5257783253666936E-2</v>
       </c>
       <c r="X24" s="21">
-        <v>7.3324005990289265E-2</v>
+        <v>4.1695874545986666E-2</v>
       </c>
       <c r="Y24" s="21">
-        <v>5.5275419073371877E-2</v>
+        <v>3.143250164844219E-2</v>
       </c>
       <c r="Z24" s="21">
-        <v>6.6844905620756845E-2</v>
+        <v>3.8011518344626669E-2</v>
       </c>
       <c r="AA24" s="21">
-        <v>6.0280509129505798E-2</v>
+        <v>3.4278658295960378E-2</v>
       </c>
       <c r="AB24" s="21">
-        <v>8.9027710242809699E-2</v>
+        <v>5.0625824206771509E-2</v>
       </c>
       <c r="AC24" s="21">
-        <v>5.7240735307373829E-2</v>
+        <v>3.2550083510335948E-2</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -48095,85 +48095,85 @@
         <v>533</v>
       </c>
       <c r="C25" s="21">
-        <v>6.9064250477064368E-2</v>
+        <v>3.9273554201139128E-2</v>
       </c>
       <c r="D25" s="21">
-        <v>7.214417830046678E-2</v>
+        <v>4.102496265735861E-2</v>
       </c>
       <c r="E25" s="21">
-        <v>6.3257039636504031E-2</v>
+        <v>3.5971269616440288E-2</v>
       </c>
       <c r="F25" s="21">
-        <v>6.4426407591460802E-2</v>
+        <v>3.6636233551368122E-2</v>
       </c>
       <c r="G25" s="21">
-        <v>5.2883717929804189E-2</v>
+        <v>3.0072454969501894E-2</v>
       </c>
       <c r="H25" s="21">
-        <v>0.12660964012274042</v>
+        <v>7.1996880142765896E-2</v>
       </c>
       <c r="I25" s="21">
-        <v>6.6635440676781149E-2</v>
+        <v>3.7892405594200165E-2</v>
       </c>
       <c r="J25" s="21">
-        <v>4.474886245477544E-2</v>
+        <v>2.5446549595735869E-2</v>
       </c>
       <c r="K25" s="21">
-        <v>5.8587715710216939E-2</v>
+        <v>3.3316047196230124E-2</v>
       </c>
       <c r="L25" s="21">
-        <v>0.10299047448813749</v>
+        <v>5.8565784093380521E-2</v>
       </c>
       <c r="M25" s="21">
-        <v>7.4755671958235861E-2</v>
+        <v>4.2509994884681275E-2</v>
       </c>
       <c r="N25" s="21">
-        <v>6.4426407591460802E-2</v>
+        <v>3.6636233551368122E-2</v>
       </c>
       <c r="O25" s="21">
-        <v>9.8785821920303038E-2</v>
+        <v>5.6174798172601667E-2</v>
       </c>
       <c r="P25" s="21">
-        <v>6.8352750458716374E-2</v>
+        <v>3.8868957983245168E-2</v>
       </c>
       <c r="Q25" s="21">
-        <v>6.8352750458716374E-2</v>
+        <v>3.8868957983245168E-2</v>
       </c>
       <c r="R25" s="21">
-        <v>7.1069986967891421E-2</v>
+        <v>4.041412114049741E-2</v>
       </c>
       <c r="S25" s="21">
-        <v>6.3514753656355255E-2</v>
+        <v>3.6117819321347049E-2</v>
       </c>
       <c r="T25" s="21">
-        <v>5.5938412283164929E-2</v>
+        <v>3.1809514351540176E-2</v>
       </c>
       <c r="U25" s="21">
-        <v>6.1797573946317325E-2</v>
+        <v>3.5141340898003165E-2</v>
       </c>
       <c r="V25" s="21">
-        <v>6.8798269507195822E-2</v>
+        <v>3.9122303474975487E-2</v>
       </c>
       <c r="W25" s="21">
-        <v>6.8798269507195822E-2</v>
+        <v>3.9122303474975487E-2</v>
       </c>
       <c r="X25" s="21">
-        <v>8.136087268205304E-2</v>
+        <v>4.6266058359552185E-2</v>
       </c>
       <c r="Y25" s="21">
-        <v>6.1334023870317909E-2</v>
+        <v>3.4877742018569136E-2</v>
       </c>
       <c r="Z25" s="21">
-        <v>7.417161381464224E-2</v>
+        <v>4.2177868799179799E-2</v>
       </c>
       <c r="AA25" s="21">
-        <v>6.6887709724214817E-2</v>
+        <v>3.8035859002283505E-2</v>
       </c>
       <c r="AB25" s="21">
-        <v>9.8785821920303038E-2</v>
+        <v>5.6174798172601667E-2</v>
       </c>
       <c r="AC25" s="21">
-        <v>6.3514753656355255E-2</v>
+        <v>3.6117819321347049E-2</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -48184,85 +48184,85 @@
         <v>534</v>
       </c>
       <c r="C26" s="21">
-        <v>5.3853270432969468E-2</v>
+        <v>3.0623793361229709E-2</v>
       </c>
       <c r="D26" s="21">
-        <v>5.6254862933315192E-2</v>
+        <v>3.19894647842867E-2</v>
       </c>
       <c r="E26" s="21">
-        <v>4.9325062370220336E-2</v>
+        <v>2.804881682042917E-2</v>
       </c>
       <c r="F26" s="21">
-        <v>5.023688416339029E-2</v>
+        <v>2.8567326503347288E-2</v>
       </c>
       <c r="G26" s="21">
-        <v>4.1236401517459512E-2</v>
+        <v>2.3449180131096967E-2</v>
       </c>
       <c r="H26" s="21">
-        <v>9.8724638895707595E-2</v>
+        <v>5.614000629668843E-2</v>
       </c>
       <c r="I26" s="21">
-        <v>5.1959391181382764E-2</v>
+        <v>2.9546834313331202E-2</v>
       </c>
       <c r="J26" s="21">
-        <v>3.4893198358028552E-2</v>
+        <v>1.9842102209162819E-2</v>
       </c>
       <c r="K26" s="21">
-        <v>4.5684128567210623E-2</v>
+        <v>2.5978390947889684E-2</v>
       </c>
       <c r="L26" s="21">
-        <v>8.0307450472823311E-2</v>
+        <v>4.5667027255253054E-2</v>
       </c>
       <c r="M26" s="21">
-        <v>5.8291191036702453E-2</v>
+        <v>3.3147427718616104E-2</v>
       </c>
       <c r="N26" s="21">
-        <v>5.023688416339029E-2</v>
+        <v>2.8567326503347288E-2</v>
       </c>
       <c r="O26" s="21">
-        <v>7.7028846994928971E-2</v>
+        <v>4.3802641404343291E-2</v>
       </c>
       <c r="P26" s="21">
-        <v>5.3298473955247866E-2</v>
+        <v>3.030830699327678E-2</v>
       </c>
       <c r="Q26" s="21">
-        <v>5.3298473955247866E-2</v>
+        <v>3.030830699327678E-2</v>
       </c>
       <c r="R26" s="21">
-        <v>5.5417255691792414E-2</v>
+        <v>3.1513157386870785E-2</v>
       </c>
       <c r="S26" s="21">
-        <v>4.9526016448626281E-2</v>
+        <v>2.816308984642598E-2</v>
       </c>
       <c r="T26" s="21">
-        <v>4.3618318065677633E-2</v>
+        <v>2.4803662776066819E-2</v>
       </c>
       <c r="U26" s="21">
-        <v>4.8187035099116218E-2</v>
+        <v>2.740167484168686E-2</v>
       </c>
       <c r="V26" s="21">
-        <v>5.3645870149879281E-2</v>
+        <v>3.050585468524308E-2</v>
       </c>
       <c r="W26" s="21">
-        <v>5.3645870149879281E-2</v>
+        <v>3.050585468524308E-2</v>
       </c>
       <c r="X26" s="21">
-        <v>6.3441636576713062E-2</v>
+        <v>3.6076241115972761E-2</v>
       </c>
       <c r="Y26" s="21">
-        <v>4.7825579100830816E-2</v>
+        <v>2.7196132008137933E-2</v>
       </c>
       <c r="Z26" s="21">
-        <v>5.7835768137905176E-2</v>
+        <v>3.2888450378287269E-2</v>
       </c>
       <c r="AA26" s="21">
-        <v>5.215609950934507E-2</v>
+        <v>2.9658692983000088E-2</v>
       </c>
       <c r="AB26" s="21">
-        <v>7.7028846994928971E-2</v>
+        <v>4.3802641404343291E-2</v>
       </c>
       <c r="AC26" s="21">
-        <v>4.9526016448626281E-2</v>
+        <v>2.816308984642598E-2</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -48273,85 +48273,85 @@
         <v>523</v>
       </c>
       <c r="C27" s="22">
-        <v>8.3230844294432949E-2</v>
+        <v>4.7329422270202065E-2</v>
       </c>
       <c r="D27" s="22">
-        <v>0.10100676618947597</v>
+        <v>5.7437743539134514E-2</v>
       </c>
       <c r="E27" s="22">
-        <v>8.3643934941305384E-2</v>
+        <v>4.7564327272397317E-2</v>
       </c>
       <c r="F27" s="22">
-        <v>8.5190174501501431E-2</v>
+        <v>4.8443600163304484E-2</v>
       </c>
       <c r="G27" s="22">
-        <v>6.9927430802851756E-2</v>
+        <v>3.9764403795191063E-2</v>
       </c>
       <c r="H27" s="22">
-        <v>0.16741422871229805</v>
+        <v>9.5200508800972569E-2</v>
       </c>
       <c r="I27" s="22">
-        <v>8.8111149316849866E-2</v>
+        <v>5.0104619604452914E-2</v>
       </c>
       <c r="J27" s="22">
-        <v>5.9170820534331266E-2</v>
+        <v>3.3647631174288421E-2</v>
       </c>
       <c r="K27" s="22">
-        <v>7.7469750550848135E-2</v>
+        <v>4.4053362284990752E-2</v>
       </c>
       <c r="L27" s="22">
-        <v>0.1361829228361284</v>
+        <v>7.7440750668109959E-2</v>
       </c>
       <c r="M27" s="22">
-        <v>9.8848422210385603E-2</v>
+        <v>5.621039597998511E-2</v>
       </c>
       <c r="N27" s="22">
-        <v>8.5190174501501431E-2</v>
+        <v>4.8443600163304484E-2</v>
       </c>
       <c r="O27" s="22">
-        <v>0.1306231671495568</v>
+        <v>7.4279182059265453E-2</v>
       </c>
       <c r="P27" s="22">
-        <v>9.0381925004420369E-2</v>
+        <v>5.1395901728394096E-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>9.0381925004420369E-2</v>
+        <v>5.1395901728394096E-2</v>
       </c>
       <c r="R27" s="22">
-        <v>9.3974890389768875E-2</v>
+        <v>5.3439050243430285E-2</v>
       </c>
       <c r="S27" s="22">
-        <v>8.3984706732615363E-2</v>
+        <v>4.7758107981284853E-2</v>
       </c>
       <c r="T27" s="22">
-        <v>7.3966612168693505E-2</v>
+        <v>4.2061294114044197E-2</v>
       </c>
       <c r="U27" s="22">
-        <v>8.1714103037369784E-2</v>
+        <v>4.6466923661198034E-2</v>
       </c>
       <c r="V27" s="22">
-        <v>9.0971028865749703E-2</v>
+        <v>5.1730897073572008E-2</v>
       </c>
       <c r="W27" s="22">
-        <v>9.0971028865749703E-2</v>
+        <v>5.1730897073572008E-2</v>
       </c>
       <c r="X27" s="22">
-        <v>0.1075823905211379</v>
+        <v>6.1176988326589576E-2</v>
       </c>
       <c r="Y27" s="22">
-        <v>8.1101156990230433E-2</v>
+        <v>4.6118370399004946E-2</v>
       </c>
       <c r="Z27" s="22">
-        <v>9.8076129962038072E-2</v>
+        <v>5.5771230112476436E-2</v>
       </c>
       <c r="AA27" s="22">
-        <v>8.8668631980995116E-2</v>
+        <v>5.0421633478856358E-2</v>
       </c>
       <c r="AB27" s="22">
-        <v>0.1306231671495568</v>
+        <v>7.4279182059265453E-2</v>
       </c>
       <c r="AC27" s="22">
-        <v>8.3984706732615363E-2</v>
+        <v>4.7758107981284853E-2</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -48362,85 +48362,85 @@
         <v>524</v>
       </c>
       <c r="C28" s="22">
-        <v>7.2113184461539664E-2</v>
+        <v>4.1007337935384545E-2</v>
       </c>
       <c r="D28" s="22">
-        <v>8.7514666273456124E-2</v>
+        <v>4.9765428069426208E-2</v>
       </c>
       <c r="E28" s="22">
-        <v>7.2471096029898485E-2</v>
+        <v>4.1210865220225247E-2</v>
       </c>
       <c r="F28" s="22">
-        <v>7.3810794786668216E-2</v>
+        <v>4.1972688180349424E-2</v>
       </c>
       <c r="G28" s="22">
-        <v>6.058679037988432E-2</v>
+        <v>3.4452825874764816E-2</v>
       </c>
       <c r="H28" s="22">
-        <v>0.14505167235728558</v>
+        <v>8.2483986678195426E-2</v>
       </c>
       <c r="I28" s="22">
-        <v>7.6341596888369626E-2</v>
+        <v>4.3411834957835044E-2</v>
       </c>
       <c r="J28" s="22">
-        <v>5.1267007226770328E-2</v>
+        <v>2.9153108491626951E-2</v>
       </c>
       <c r="K28" s="22">
-        <v>6.7121635723169593E-2</v>
+        <v>3.8168881591185075E-2</v>
       </c>
       <c r="L28" s="22">
-        <v>0.11799212561454478</v>
+        <v>6.7096509534543367E-2</v>
       </c>
       <c r="M28" s="22">
-        <v>8.5644625679550876E-2</v>
+        <v>4.8702024932263978E-2</v>
       </c>
       <c r="N28" s="22">
-        <v>7.3810794786668216E-2</v>
+        <v>4.1972688180349424E-2</v>
       </c>
       <c r="O28" s="22">
-        <v>0.11317502096078784</v>
+        <v>6.4357251243820163E-2</v>
       </c>
       <c r="P28" s="22">
-        <v>7.8309050990472306E-2</v>
+        <v>4.4530632523629862E-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>7.8309050990472306E-2</v>
+        <v>4.4530632523629862E-2</v>
       </c>
       <c r="R28" s="22">
-        <v>8.1422081715968556E-2</v>
+        <v>4.630086502572861E-2</v>
       </c>
       <c r="S28" s="22">
-        <v>7.2766348820547749E-2</v>
+        <v>4.1378761438550994E-2</v>
       </c>
       <c r="T28" s="22">
-        <v>6.4086433251199532E-2</v>
+        <v>3.6442906314961179E-2</v>
       </c>
       <c r="U28" s="22">
-        <v>7.0799043736688952E-2</v>
+        <v>4.0260048612343412E-2</v>
       </c>
       <c r="V28" s="22">
-        <v>7.8819464597100708E-2</v>
+        <v>4.4820880463865988E-2</v>
       </c>
       <c r="W28" s="22">
-        <v>7.8819464597100708E-2</v>
+        <v>4.4820880463865988E-2</v>
       </c>
       <c r="X28" s="22">
-        <v>9.3211943699856581E-2</v>
+        <v>5.3005198750481687E-2</v>
       </c>
       <c r="Y28" s="22">
-        <v>7.0267972692810474E-2</v>
+        <v>3.9958053770115402E-2</v>
       </c>
       <c r="Z28" s="22">
-        <v>8.4975493294370583E-2</v>
+        <v>4.8321521172133508E-2</v>
       </c>
       <c r="AA28" s="22">
-        <v>7.682461313714635E-2</v>
+        <v>4.368650332381787E-2</v>
       </c>
       <c r="AB28" s="22">
-        <v>0.11317502096078784</v>
+        <v>6.4357251243820163E-2</v>
       </c>
       <c r="AC28" s="22">
-        <v>7.2766348820547749E-2</v>
+        <v>4.1378761438550994E-2</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -48451,85 +48451,85 @@
         <v>525</v>
       </c>
       <c r="C29" s="22">
-        <v>5.1562358709827824E-2</v>
+        <v>2.9321060831630951E-2</v>
       </c>
       <c r="D29" s="22">
-        <v>6.2574724004449703E-2</v>
+        <v>3.5583269170874475E-2</v>
       </c>
       <c r="E29" s="22">
-        <v>5.1818272587600855E-2</v>
+        <v>2.9466586881361709E-2</v>
       </c>
       <c r="F29" s="22">
-        <v>5.277618379864317E-2</v>
+        <v>3.0011305423977945E-2</v>
       </c>
       <c r="G29" s="22">
-        <v>4.3320758082883881E-2</v>
+        <v>2.463445456731023E-2</v>
       </c>
       <c r="H29" s="22">
-        <v>0.10371482576165642</v>
+        <v>5.8977688208819476E-2</v>
       </c>
       <c r="I29" s="22">
-        <v>5.4585757550875823E-2</v>
+        <v>3.1040323944389877E-2</v>
       </c>
       <c r="J29" s="22">
-        <v>3.6656928082490998E-2</v>
+        <v>2.0845051411555734E-2</v>
       </c>
       <c r="K29" s="22">
-        <v>4.7993302253824359E-2</v>
+        <v>2.7291508187483649E-2</v>
       </c>
       <c r="L29" s="22">
-        <v>8.4366712568587132E-2</v>
+        <v>4.7975336530071765E-2</v>
       </c>
       <c r="M29" s="22">
-        <v>6.1237607849826022E-2</v>
+        <v>3.4822914813749127E-2</v>
       </c>
       <c r="N29" s="22">
-        <v>5.277618379864317E-2</v>
+        <v>3.0011305423977945E-2</v>
       </c>
       <c r="O29" s="22">
-        <v>8.092238709669973E-2</v>
+        <v>4.6016712463754612E-2</v>
       </c>
       <c r="P29" s="22">
-        <v>5.5992526298022822E-2</v>
+        <v>3.1840286417853539E-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>5.5992526298022822E-2</v>
+        <v>3.1840286417853539E-2</v>
       </c>
       <c r="R29" s="22">
-        <v>5.8218405076519444E-2</v>
+        <v>3.3106037805128538E-2</v>
       </c>
       <c r="S29" s="22">
-        <v>5.2029384195210616E-2</v>
+        <v>2.9586636011073253E-2</v>
       </c>
       <c r="T29" s="22">
-        <v>4.5823072221892497E-2</v>
+        <v>2.6057401595444098E-2</v>
       </c>
       <c r="U29" s="22">
-        <v>5.0622721999066776E-2</v>
+        <v>2.8786734128096982E-2</v>
       </c>
       <c r="V29" s="22">
-        <v>5.6357482161113109E-2</v>
+        <v>3.2047819458045725E-2</v>
       </c>
       <c r="W29" s="22">
-        <v>5.6357482161113109E-2</v>
+        <v>3.2047819458045725E-2</v>
       </c>
       <c r="X29" s="22">
-        <v>6.6648390484760803E-2</v>
+        <v>3.7899769534039812E-2</v>
       </c>
       <c r="Y29" s="22">
-        <v>5.0242995658185664E-2</v>
+        <v>2.8570801819743804E-2</v>
       </c>
       <c r="Z29" s="22">
-        <v>6.0759164908682162E-2</v>
+        <v>3.4550847070287473E-2</v>
       </c>
       <c r="AA29" s="22">
-        <v>5.493112375912286E-2</v>
+        <v>3.1236717279655803E-2</v>
       </c>
       <c r="AB29" s="22">
-        <v>8.092238709669973E-2</v>
+        <v>4.6016712463754612E-2</v>
       </c>
       <c r="AC29" s="22">
-        <v>5.2029384195210616E-2</v>
+        <v>2.9586636011073253E-2</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -48540,85 +48540,85 @@
         <v>526</v>
       </c>
       <c r="C30" s="22">
-        <v>6.2275740003343176E-2</v>
+        <v>3.5413251190636923E-2</v>
       </c>
       <c r="D30" s="22">
-        <v>7.5576202105341578E-2</v>
+        <v>4.2976591350775216E-2</v>
       </c>
       <c r="E30" s="22">
-        <v>6.2584826447683872E-2</v>
+        <v>3.5589013949818435E-2</v>
       </c>
       <c r="F30" s="22">
-        <v>6.3741767887482453E-2</v>
+        <v>3.6246911516643728E-2</v>
       </c>
       <c r="G30" s="22">
-        <v>5.2321738854107055E-2</v>
+        <v>2.975288419972098E-2</v>
       </c>
       <c r="H30" s="22">
-        <v>0.12526419824921392</v>
+        <v>7.1231791345313822E-2</v>
       </c>
       <c r="I30" s="22">
-        <v>6.592732625468406E-2</v>
+        <v>3.7489734603858009E-2</v>
       </c>
       <c r="J30" s="22">
-        <v>4.4273329997049728E-2</v>
+        <v>2.5176136905756791E-2</v>
       </c>
       <c r="K30" s="22">
-        <v>5.7965121996860061E-2</v>
+        <v>3.2962007765150944E-2</v>
       </c>
       <c r="L30" s="22">
-        <v>0.10189602625484045</v>
+        <v>5.7943423440599578E-2</v>
       </c>
       <c r="M30" s="22">
-        <v>7.3961266324994057E-2</v>
+        <v>4.205825418700769E-2</v>
       </c>
       <c r="N30" s="22">
-        <v>6.3741767887482453E-2</v>
+        <v>3.6246911516643728E-2</v>
       </c>
       <c r="O30" s="22">
-        <v>9.7736055242240744E-2</v>
+        <v>5.5577845795001898E-2</v>
       </c>
       <c r="P30" s="22">
-        <v>6.7626386711463704E-2</v>
+        <v>3.8455909469717262E-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>6.7626386711463704E-2</v>
+        <v>3.8455909469717262E-2</v>
       </c>
       <c r="R30" s="22">
-        <v>7.0314747980363398E-2</v>
+        <v>3.9984652651277423E-2</v>
       </c>
       <c r="S30" s="22">
-        <v>6.2839801819566693E-2</v>
+        <v>3.5734006315889515E-2</v>
       </c>
       <c r="T30" s="22">
-        <v>5.5343971906023047E-2</v>
+        <v>3.1471484383651362E-2</v>
       </c>
       <c r="U30" s="22">
-        <v>6.1140870052450134E-2</v>
+        <v>3.4767904629720528E-2</v>
       </c>
       <c r="V30" s="22">
-        <v>6.8067171365447626E-2</v>
+        <v>3.870656273648973E-2</v>
       </c>
       <c r="W30" s="22">
-        <v>6.8067171365447626E-2</v>
+        <v>3.870656273648973E-2</v>
       </c>
       <c r="X30" s="22">
-        <v>8.0496275603450074E-2</v>
+        <v>4.5774403125561969E-2</v>
       </c>
       <c r="Y30" s="22">
-        <v>6.0682245981154001E-2</v>
+        <v>3.450710693485555E-2</v>
       </c>
       <c r="Z30" s="22">
-        <v>7.3383414788434478E-2</v>
+        <v>4.1729657503708842E-2</v>
       </c>
       <c r="AA30" s="22">
-        <v>6.6344451008649857E-2</v>
+        <v>3.7726933610874716E-2</v>
       </c>
       <c r="AB30" s="22">
-        <v>9.7736055242240744E-2</v>
+        <v>5.5577845795001898E-2</v>
       </c>
       <c r="AC30" s="22">
-        <v>6.2839801819566693E-2</v>
+        <v>3.5734006315889515E-2</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -48629,85 +48629,85 @@
         <v>527</v>
       </c>
       <c r="C31" s="22">
-        <v>6.3724404769447449E-2</v>
+        <v>3.6237037937294964E-2</v>
       </c>
       <c r="D31" s="22">
-        <v>7.7334263609550216E-2</v>
+        <v>4.397631730591902E-2</v>
       </c>
       <c r="E31" s="22">
-        <v>6.40406812149278E-2</v>
+        <v>3.6416889308131764E-2</v>
       </c>
       <c r="F31" s="22">
-        <v>6.5224535547294057E-2</v>
+        <v>3.7090090956846969E-2</v>
       </c>
       <c r="G31" s="22">
-        <v>5.3538852606190686E-2</v>
+        <v>3.0444998898443182E-2</v>
       </c>
       <c r="H31" s="22">
-        <v>0.12817810710759431</v>
+        <v>7.2888792712827194E-2</v>
       </c>
       <c r="I31" s="22">
-        <v>6.7460934601425424E-2</v>
+        <v>3.8361824724477911E-2</v>
       </c>
       <c r="J31" s="22">
-        <v>4.5303220821974334E-2</v>
+        <v>2.5761786831073285E-2</v>
       </c>
       <c r="K31" s="22">
-        <v>5.9313512716830295E-2</v>
+        <v>3.3728773431313502E-2</v>
       </c>
       <c r="L31" s="22">
-        <v>0.10426634225644074</v>
+        <v>5.9291309406488558E-2</v>
       </c>
       <c r="M31" s="22">
-        <v>7.5681761024466457E-2</v>
+        <v>4.3036617687165289E-2</v>
       </c>
       <c r="N31" s="22">
-        <v>6.5224535547294057E-2</v>
+        <v>3.7090090956846969E-2</v>
       </c>
       <c r="O31" s="22">
-        <v>0.1000096015638076</v>
+        <v>5.6870703446711433E-2</v>
       </c>
       <c r="P31" s="22">
-        <v>6.919951877994783E-2</v>
+        <v>3.935047485094411E-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>6.919951877994783E-2</v>
+        <v>3.935047485094411E-2</v>
       </c>
       <c r="R31" s="22">
-        <v>7.1950416989373739E-2</v>
+        <v>4.0914779816008245E-2</v>
       </c>
       <c r="S31" s="22">
-        <v>6.4301587850533068E-2</v>
+        <v>3.6565254501760895E-2</v>
       </c>
       <c r="T31" s="22">
-        <v>5.663138915890862E-2</v>
+        <v>3.2203577339289448E-2</v>
       </c>
       <c r="U31" s="22">
-        <v>6.2563135355266114E-2</v>
+        <v>3.557667925729855E-2</v>
       </c>
       <c r="V31" s="22">
-        <v>6.965055701257461E-2</v>
+        <v>3.9606958840178688E-2</v>
       </c>
       <c r="W31" s="22">
-        <v>6.965055701257461E-2</v>
+        <v>3.9606958840178688E-2</v>
       </c>
       <c r="X31" s="22">
-        <v>8.2368788371071575E-2</v>
+        <v>4.6839212070327541E-2</v>
       </c>
       <c r="Y31" s="22">
-        <v>6.2093842722939024E-2</v>
+        <v>3.5309814859226005E-2</v>
       </c>
       <c r="Z31" s="22">
-        <v>7.5090467445130551E-2</v>
+        <v>4.2700377153511104E-2</v>
       </c>
       <c r="AA31" s="22">
-        <v>6.7887762554969547E-2</v>
+        <v>3.8604541479561549E-2</v>
       </c>
       <c r="AB31" s="22">
-        <v>0.1000096015638076</v>
+        <v>5.6870703446711433E-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>6.4301587850533068E-2</v>
+        <v>3.6565254501760895E-2</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -48718,85 +48718,85 @@
         <v>528</v>
       </c>
       <c r="C32" s="22">
-        <v>5.4746052207429077E-2</v>
+        <v>3.1131475891146874E-2</v>
       </c>
       <c r="D32" s="22">
-        <v>6.6438370798582655E-2</v>
+        <v>3.7780341328109118E-2</v>
       </c>
       <c r="E32" s="22">
-        <v>5.5017767366776466E-2</v>
+        <v>3.1285987378120071E-2</v>
       </c>
       <c r="F32" s="22">
-        <v>5.6034824353345405E-2</v>
+        <v>3.1864339310005985E-2</v>
       </c>
       <c r="G32" s="22">
-        <v>4.5995577840370012E-2</v>
+        <v>2.6155497335432293E-2</v>
       </c>
       <c r="H32" s="22">
-        <v>0.11011864871786453</v>
+        <v>6.261923772579657E-2</v>
       </c>
       <c r="I32" s="22">
-        <v>5.7956129382667892E-2</v>
+        <v>3.2956894093194085E-2</v>
       </c>
       <c r="J32" s="22">
-        <v>3.8920292802383454E-2</v>
+        <v>2.2132119270681521E-2</v>
       </c>
       <c r="K32" s="22">
-        <v>5.0956626045386859E-2</v>
+        <v>2.8976609477073461E-2</v>
       </c>
       <c r="L32" s="22">
-        <v>8.9575895409313364E-2</v>
+        <v>5.0937551036502209E-2</v>
       </c>
       <c r="M32" s="22">
-        <v>6.5018695038201429E-2</v>
+        <v>3.6973039250142004E-2</v>
       </c>
       <c r="N32" s="22">
-        <v>5.6034824353345405E-2</v>
+        <v>3.1864339310005985E-2</v>
       </c>
       <c r="O32" s="22">
-        <v>8.5918901687119936E-2</v>
+        <v>4.8857992651813953E-2</v>
       </c>
       <c r="P32" s="22">
-        <v>5.9449758402017043E-2</v>
+        <v>3.3806249871945117E-2</v>
       </c>
       <c r="Q32" s="22">
-        <v>5.9449758402017043E-2</v>
+        <v>3.3806249871945117E-2</v>
       </c>
       <c r="R32" s="22">
-        <v>6.1813073014925904E-2</v>
+        <v>3.5150154481106748E-2</v>
       </c>
       <c r="S32" s="22">
-        <v>5.5241913960939068E-2</v>
+        <v>3.141344888467431E-2</v>
       </c>
       <c r="T32" s="22">
-        <v>4.8652396184629403E-2</v>
+        <v>2.7666303556090593E-2</v>
       </c>
       <c r="U32" s="22">
-        <v>5.3748398071534469E-2</v>
+        <v>3.0564157437541713E-2</v>
       </c>
       <c r="V32" s="22">
-        <v>5.9837248292589872E-2</v>
+        <v>3.4026596941734273E-2</v>
       </c>
       <c r="W32" s="22">
-        <v>5.9837248292589872E-2</v>
+        <v>3.4026596941734273E-2</v>
       </c>
       <c r="X32" s="22">
-        <v>7.0763563892673173E-2</v>
+        <v>4.0239872912652526E-2</v>
       </c>
       <c r="Y32" s="22">
-        <v>5.3345225706992294E-2</v>
+        <v>3.0334892490743996E-2</v>
       </c>
       <c r="Z32" s="22">
-        <v>6.4510710863514217E-2</v>
+        <v>3.6684172812294767E-2</v>
       </c>
       <c r="AA32" s="22">
-        <v>5.8322820064406825E-2</v>
+        <v>3.3165413642235006E-2</v>
       </c>
       <c r="AB32" s="22">
-        <v>8.5918901687119936E-2</v>
+        <v>4.8857992651813953E-2</v>
       </c>
       <c r="AC32" s="22">
-        <v>5.5241913960939068E-2</v>
+        <v>3.141344888467431E-2</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -48807,85 +48807,85 @@
         <v>529</v>
       </c>
       <c r="C33" s="22">
-        <v>6.6891253327907962E-2</v>
+        <v>3.8037874081152077E-2</v>
       </c>
       <c r="D33" s="22">
-        <v>8.1177467828052838E-2</v>
+        <v>4.6161764742745019E-2</v>
       </c>
       <c r="E33" s="22">
-        <v>6.7223247450298257E-2</v>
+        <v>3.8226663347235325E-2</v>
       </c>
       <c r="F33" s="22">
-        <v>6.8465934617579882E-2</v>
+        <v>3.8933320430779621E-2</v>
       </c>
       <c r="G33" s="22">
-        <v>5.6199519878187477E-2</v>
+        <v>3.1957993821231268E-2</v>
       </c>
       <c r="H33" s="22">
-        <v>0.13454804740265849</v>
+        <v>7.6511074772042525E-2</v>
       </c>
       <c r="I33" s="22">
-        <v>7.0813473778022828E-2</v>
+        <v>4.0268254290484216E-2</v>
       </c>
       <c r="J33" s="22">
-        <v>4.7554610067158359E-2</v>
+        <v>2.7042044807346555E-2</v>
       </c>
       <c r="K33" s="22">
-        <v>6.2261157546532678E-2</v>
+        <v>3.5404958841064219E-2</v>
       </c>
       <c r="L33" s="22">
-        <v>0.10944796328319487</v>
+        <v>6.223785082029238E-2</v>
       </c>
       <c r="M33" s="22">
-        <v>7.9442842460522411E-2</v>
+        <v>4.5175365803788885E-2</v>
       </c>
       <c r="N33" s="22">
-        <v>6.8465934617579882E-2</v>
+        <v>3.8933320430779621E-2</v>
       </c>
       <c r="O33" s="22">
-        <v>0.10497967956909331</v>
+        <v>5.9696950406262515E-2</v>
       </c>
       <c r="P33" s="22">
-        <v>7.2638458650587587E-2</v>
+        <v>4.1306036381998167E-2</v>
       </c>
       <c r="Q33" s="22">
-        <v>7.2638458650587587E-2</v>
+        <v>4.1306036381998167E-2</v>
       </c>
       <c r="R33" s="22">
-        <v>7.5526065520698696E-2</v>
+        <v>4.2948081059838432E-2</v>
       </c>
       <c r="S33" s="22">
-        <v>6.7497120104273556E-2</v>
+        <v>3.8382401698782057E-2</v>
       </c>
       <c r="T33" s="22">
-        <v>5.9445743153588727E-2</v>
+        <v>3.3803966591149461E-2</v>
       </c>
       <c r="U33" s="22">
-        <v>6.5672273459096431E-2</v>
+        <v>3.7344698210608665E-2</v>
       </c>
       <c r="V33" s="22">
-        <v>7.3111911683038266E-2</v>
+        <v>4.1575266601731317E-2</v>
       </c>
       <c r="W33" s="22">
-        <v>7.3111911683038266E-2</v>
+        <v>4.1575266601731317E-2</v>
       </c>
       <c r="X33" s="22">
-        <v>8.6462188374709287E-2</v>
+        <v>4.916693394958252E-2</v>
       </c>
       <c r="Y33" s="22">
-        <v>6.5179658856143505E-2</v>
+        <v>3.706457171715212E-2</v>
       </c>
       <c r="Z33" s="22">
-        <v>7.8822163950466137E-2</v>
+        <v>4.4822415457730004E-2</v>
       </c>
       <c r="AA33" s="22">
-        <v>7.1261513377156763E-2</v>
+        <v>4.0523033099481597E-2</v>
       </c>
       <c r="AB33" s="22">
-        <v>0.10497967956909331</v>
+        <v>5.9696950406262515E-2</v>
       </c>
       <c r="AC33" s="22">
-        <v>6.7497120104273556E-2</v>
+        <v>3.8382401698782057E-2</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -48896,85 +48896,85 @@
         <v>530</v>
       </c>
       <c r="C34" s="22">
-        <v>6.2023065916231961E-2</v>
+        <v>3.5269567455754706E-2</v>
       </c>
       <c r="D34" s="22">
-        <v>7.5269563470886577E-2</v>
+        <v>4.2802220544645476E-2</v>
       </c>
       <c r="E34" s="22">
-        <v>6.2330898290606451E-2</v>
+        <v>3.5444617084996348E-2</v>
       </c>
       <c r="F34" s="22">
-        <v>6.3483145621236248E-2</v>
+        <v>3.6099845335212939E-2</v>
       </c>
       <c r="G34" s="22">
-        <v>5.2109451571766885E-2</v>
+        <v>2.9632166519711289E-2</v>
       </c>
       <c r="H34" s="22">
-        <v>0.12475595833205454</v>
+        <v>7.0942779478887066E-2</v>
       </c>
       <c r="I34" s="22">
-        <v>6.5659836426764054E-2</v>
+        <v>3.733762586188942E-2</v>
       </c>
       <c r="J34" s="22">
-        <v>4.4093697876423345E-2</v>
+        <v>2.5073988662969032E-2</v>
       </c>
       <c r="K34" s="22">
-        <v>5.7729937568958278E-2</v>
+        <v>3.2828269567564454E-2</v>
       </c>
       <c r="L34" s="22">
-        <v>0.10148259904525901</v>
+        <v>5.7708327051200339E-2</v>
       </c>
       <c r="M34" s="22">
-        <v>7.3661180040202362E-2</v>
+        <v>4.1887609390468573E-2</v>
       </c>
       <c r="N34" s="22">
-        <v>6.3483145621236248E-2</v>
+        <v>3.6099845335212939E-2</v>
       </c>
       <c r="O34" s="22">
-        <v>9.7339506465223269E-2</v>
+        <v>5.5352347367378145E-2</v>
       </c>
       <c r="P34" s="22">
-        <v>6.7352003211146691E-2</v>
+        <v>3.8299880624154431E-2</v>
       </c>
       <c r="Q34" s="22">
-        <v>6.7352003211146691E-2</v>
+        <v>3.8299880624154431E-2</v>
       </c>
       <c r="R34" s="22">
-        <v>7.0029456874140666E-2</v>
+        <v>3.9822421169056932E-2</v>
       </c>
       <c r="S34" s="22">
-        <v>6.2584839139746981E-2</v>
+        <v>3.5589021167191023E-2</v>
       </c>
       <c r="T34" s="22">
-        <v>5.5119422385170917E-2</v>
+        <v>3.1343793751854025E-2</v>
       </c>
       <c r="U34" s="22">
-        <v>6.0892800522889208E-2</v>
+        <v>3.4626839287701106E-2</v>
       </c>
       <c r="V34" s="22">
-        <v>6.7790999450251049E-2</v>
+        <v>3.8549516904450951E-2</v>
       </c>
       <c r="W34" s="22">
-        <v>6.7790999450251049E-2</v>
+        <v>3.8549516904450951E-2</v>
       </c>
       <c r="X34" s="22">
-        <v>8.0169674539330049E-2</v>
+        <v>4.5588680635195881E-2</v>
       </c>
       <c r="Y34" s="22">
-        <v>6.0436037247121731E-2</v>
+        <v>3.4367099738744425E-2</v>
       </c>
       <c r="Z34" s="22">
-        <v>7.3085673045987495E-2</v>
+        <v>4.1560345936882868E-2</v>
       </c>
       <c r="AA34" s="22">
-        <v>6.6075268762198755E-2</v>
+        <v>3.7573862470987478E-2</v>
       </c>
       <c r="AB34" s="22">
-        <v>9.7339506465223269E-2</v>
+        <v>5.5352347367378145E-2</v>
       </c>
       <c r="AC34" s="22">
-        <v>6.2584839139746981E-2</v>
+        <v>3.5589021167191023E-2</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -48985,85 +48985,85 @@
         <v>531</v>
       </c>
       <c r="C35" s="22">
-        <v>6.0254347306453487E-2</v>
+        <v>3.4263781311579193E-2</v>
       </c>
       <c r="D35" s="22">
-        <v>7.3123093029701602E-2</v>
+        <v>4.1581624901737342E-2</v>
       </c>
       <c r="E35" s="22">
-        <v>6.0553401191064442E-2</v>
+        <v>3.4433839031241698E-2</v>
       </c>
       <c r="F35" s="22">
-        <v>6.1672789757512787E-2</v>
+        <v>3.5070382065197359E-2</v>
       </c>
       <c r="G35" s="22">
-        <v>5.0623440595385705E-2</v>
+        <v>2.8787142759643482E-2</v>
       </c>
       <c r="H35" s="22">
-        <v>0.12119827891193892</v>
+        <v>6.8919696413899806E-2</v>
       </c>
       <c r="I35" s="22">
-        <v>6.3787407631324025E-2</v>
+        <v>3.6272864668109313E-2</v>
       </c>
       <c r="J35" s="22">
-        <v>4.2836273032038651E-2</v>
+        <v>2.4358950963454706E-2</v>
       </c>
       <c r="K35" s="22">
-        <v>5.6083646573645785E-2</v>
+        <v>3.1892102184459009E-2</v>
       </c>
       <c r="L35" s="22">
-        <v>9.8588608578188894E-2</v>
+        <v>5.6062652325405658E-2</v>
       </c>
       <c r="M35" s="22">
-        <v>7.1560576046660468E-2</v>
+        <v>4.0693095814694755E-2</v>
       </c>
       <c r="N35" s="22">
-        <v>6.1672789757512787E-2</v>
+        <v>3.5070382065197359E-2</v>
       </c>
       <c r="O35" s="22">
-        <v>9.4563665026100932E-2</v>
+        <v>5.377385837401185E-2</v>
       </c>
       <c r="P35" s="22">
-        <v>6.5431318708927697E-2</v>
+        <v>3.7207678705214679E-2</v>
       </c>
       <c r="Q35" s="22">
-        <v>6.5431318708927697E-2</v>
+        <v>3.7207678705214679E-2</v>
       </c>
       <c r="R35" s="22">
-        <v>6.8032419130581528E-2</v>
+        <v>3.8686800793513491E-2</v>
       </c>
       <c r="S35" s="22">
-        <v>6.0800100381008949E-2</v>
+        <v>3.457412512630155E-2</v>
       </c>
       <c r="T35" s="22">
-        <v>5.3547575739205967E-2</v>
+        <v>3.0449959329272636E-2</v>
       </c>
       <c r="U35" s="22">
-        <v>5.9156313815962716E-2</v>
+        <v>3.3639381893565148E-2</v>
       </c>
       <c r="V35" s="22">
-        <v>6.585779604387508E-2</v>
+        <v>3.7450196080179542E-2</v>
       </c>
       <c r="W35" s="22">
-        <v>6.585779604387508E-2</v>
+        <v>3.7450196080179542E-2</v>
       </c>
       <c r="X35" s="22">
-        <v>7.7883467090489836E-2</v>
+        <v>4.4288623202633257E-2</v>
       </c>
       <c r="Y35" s="22">
-        <v>5.8712576108895832E-2</v>
+        <v>3.3387049365966551E-2</v>
       </c>
       <c r="Z35" s="22">
-        <v>7.1001480848858586E-2</v>
+        <v>4.0375164969101048E-2</v>
       </c>
       <c r="AA35" s="22">
-        <v>6.4190993037040997E-2</v>
+        <v>3.6502364491776809E-2</v>
       </c>
       <c r="AB35" s="22">
-        <v>9.4563665026100932E-2</v>
+        <v>5.377385837401185E-2</v>
       </c>
       <c r="AC35" s="22">
-        <v>6.0800100381008949E-2</v>
+        <v>3.457412512630155E-2</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -49074,85 +49074,85 @@
         <v>532</v>
       </c>
       <c r="C36" s="22">
-        <v>6.2242050125061683E-2</v>
+        <v>3.5394093359319298E-2</v>
       </c>
       <c r="D36" s="22">
-        <v>7.5535316954080903E-2</v>
+        <v>4.2953341909957914E-2</v>
       </c>
       <c r="E36" s="22">
-        <v>6.2550969360073552E-2</v>
+        <v>3.5569761034508825E-2</v>
       </c>
       <c r="F36" s="22">
-        <v>6.3707284918649631E-2</v>
+        <v>3.6227302692452959E-2</v>
       </c>
       <c r="G36" s="22">
-        <v>5.2293433883128369E-2</v>
+        <v>2.9736788509053022E-2</v>
       </c>
       <c r="H36" s="22">
-        <v>0.125196432926926</v>
+        <v>7.1193256429790255E-2</v>
       </c>
       <c r="I36" s="22">
-        <v>6.589166094429473E-2</v>
+        <v>3.7469453438262204E-2</v>
       </c>
       <c r="J36" s="22">
-        <v>4.4249379047632882E-2</v>
+        <v>2.5162517140051761E-2</v>
       </c>
       <c r="K36" s="22">
-        <v>5.7933764073139826E-2</v>
+        <v>3.2944176005472746E-2</v>
       </c>
       <c r="L36" s="22">
-        <v>0.10184090262689627</v>
+        <v>5.7912077255346354E-2</v>
       </c>
       <c r="M36" s="22">
-        <v>7.3921254820355164E-2</v>
+        <v>4.2035501547469142E-2</v>
       </c>
       <c r="N36" s="22">
-        <v>6.3707284918649631E-2</v>
+        <v>3.6227302692452959E-2</v>
       </c>
       <c r="O36" s="22">
-        <v>9.7683182071971741E-2</v>
+        <v>5.5547779337985395E-2</v>
       </c>
       <c r="P36" s="22">
-        <v>6.7589802244754763E-2</v>
+        <v>3.8435105623642218E-2</v>
       </c>
       <c r="Q36" s="22">
-        <v>6.7589802244754763E-2</v>
+        <v>3.8435105623642218E-2</v>
       </c>
       <c r="R36" s="22">
-        <v>7.027670916620038E-2</v>
+        <v>3.996302178698137E-2</v>
       </c>
       <c r="S36" s="22">
-        <v>6.2805806795590738E-2</v>
+        <v>3.5714674962729724E-2</v>
       </c>
       <c r="T36" s="22">
-        <v>5.531403196990943E-2</v>
+        <v>3.1454458966078382E-2</v>
       </c>
       <c r="U36" s="22">
-        <v>6.1107794115175348E-2</v>
+        <v>3.4749095917451275E-2</v>
       </c>
       <c r="V36" s="22">
-        <v>6.8030348443421415E-2</v>
+        <v>3.8685623292217891E-2</v>
       </c>
       <c r="W36" s="22">
-        <v>6.8030348443421415E-2</v>
+        <v>3.8685623292217891E-2</v>
       </c>
       <c r="X36" s="22">
-        <v>8.0452728794900744E-2</v>
+        <v>4.5749640126846493E-2</v>
       </c>
       <c r="Y36" s="22">
-        <v>6.0649418149949702E-2</v>
+        <v>3.4488439308707403E-2</v>
       </c>
       <c r="Z36" s="22">
-        <v>7.3343715889441552E-2</v>
+        <v>4.1707082628132053E-2</v>
       </c>
       <c r="AA36" s="22">
-        <v>6.6308560042456374E-2</v>
+        <v>3.7706524125556418E-2</v>
       </c>
       <c r="AB36" s="22">
-        <v>9.7683182071971741E-2</v>
+        <v>5.5547779337985395E-2</v>
       </c>
       <c r="AC36" s="22">
-        <v>6.2805806795590738E-2</v>
+        <v>3.5714674962729724E-2</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -49163,85 +49163,85 @@
         <v>533</v>
       </c>
       <c r="C37" s="22">
-        <v>6.9064250477064368E-2</v>
+        <v>3.9273554201139128E-2</v>
       </c>
       <c r="D37" s="22">
-        <v>8.3814560084365816E-2</v>
+        <v>4.7661353675460739E-2</v>
       </c>
       <c r="E37" s="22">
-        <v>6.9407029601164155E-2</v>
+        <v>3.9468476384705325E-2</v>
       </c>
       <c r="F37" s="22">
-        <v>7.0690086107297281E-2</v>
+        <v>4.0198089591084472E-2</v>
       </c>
       <c r="G37" s="22">
-        <v>5.8025190506312933E-2</v>
+        <v>3.299616586931458E-2</v>
       </c>
       <c r="H37" s="22">
-        <v>0.1389189106902291</v>
+        <v>7.8996576823312598E-2</v>
       </c>
       <c r="I37" s="22">
-        <v>7.3113886298134881E-2</v>
+        <v>4.157638947141408E-2</v>
       </c>
       <c r="J37" s="22">
-        <v>4.9099446304545276E-2</v>
+        <v>2.7920519695321302E-2</v>
       </c>
       <c r="K37" s="22">
-        <v>6.4283743626488032E-2</v>
+        <v>3.6555107340308056E-2</v>
       </c>
       <c r="L37" s="22">
-        <v>0.11300343728559531</v>
+        <v>6.4259679769125846E-2</v>
       </c>
       <c r="M37" s="22">
-        <v>8.2023584509731018E-2</v>
+        <v>4.6642911054025286E-2</v>
       </c>
       <c r="N37" s="22">
-        <v>7.0690086107297281E-2</v>
+        <v>4.0198089591084472E-2</v>
       </c>
       <c r="O37" s="22">
-        <v>0.1083899990514436</v>
+        <v>6.1636236883826821E-2</v>
       </c>
       <c r="P37" s="22">
-        <v>7.499815675331381E-2</v>
+        <v>4.2647884453838457E-2</v>
       </c>
       <c r="Q37" s="22">
-        <v>7.499815675331381E-2</v>
+        <v>4.2647884453838457E-2</v>
       </c>
       <c r="R37" s="22">
-        <v>7.7979569034214213E-2</v>
+        <v>4.4343271806934662E-2</v>
       </c>
       <c r="S37" s="22">
-        <v>6.9689799150723139E-2</v>
+        <v>3.9629273977589134E-2</v>
       </c>
       <c r="T37" s="22">
-        <v>6.1376869032917086E-2</v>
+        <v>3.490210602460659E-2</v>
       </c>
       <c r="U37" s="22">
-        <v>6.7805671413320404E-2</v>
+        <v>3.8557860151975702E-2</v>
       </c>
       <c r="V37" s="22">
-        <v>7.5486990153728756E-2</v>
+        <v>4.2925860757264768E-2</v>
       </c>
       <c r="W37" s="22">
-        <v>7.5486990153728756E-2</v>
+        <v>4.2925860757264768E-2</v>
       </c>
       <c r="X37" s="22">
-        <v>8.9270957526141545E-2</v>
+        <v>5.0764147366730877E-2</v>
       </c>
       <c r="Y37" s="22">
-        <v>6.7297053968821047E-2</v>
+        <v>3.8268633603707809E-2</v>
       </c>
       <c r="Z37" s="22">
-        <v>8.1382742935510247E-2</v>
+        <v>4.6278494932433398E-2</v>
       </c>
       <c r="AA37" s="22">
-        <v>7.3576480696636304E-2</v>
+        <v>4.1839444902511853E-2</v>
       </c>
       <c r="AB37" s="22">
-        <v>0.1083899990514436</v>
+        <v>6.1636236883826821E-2</v>
       </c>
       <c r="AC37" s="22">
-        <v>6.9689799150723139E-2</v>
+        <v>3.9629273977589134E-2</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -49252,85 +49252,85 @@
         <v>534</v>
       </c>
       <c r="C38" s="22">
-        <v>5.3853270432969468E-2</v>
+        <v>3.0623793361229709E-2</v>
       </c>
       <c r="D38" s="22">
-        <v>6.5354914290175009E-2</v>
+        <v>3.7164231146450732E-2</v>
       </c>
       <c r="E38" s="22">
-        <v>5.4120554545102881E-2</v>
+        <v>3.0775785122415349E-2</v>
       </c>
       <c r="F38" s="22">
-        <v>5.5121025679275466E-2</v>
+        <v>3.1344705468950504E-2</v>
       </c>
       <c r="G38" s="22">
-        <v>4.5245496109434742E-2</v>
+        <v>2.5728961532731395E-2</v>
       </c>
       <c r="H38" s="22">
-        <v>0.10832286767723474</v>
+        <v>6.1598062464422038E-2</v>
       </c>
       <c r="I38" s="22">
-        <v>5.7010998657350535E-2</v>
+        <v>3.2419443204905071E-2</v>
       </c>
       <c r="J38" s="22">
-        <v>3.8285592642836888E-2</v>
+        <v>2.1771195479498098E-2</v>
       </c>
       <c r="K38" s="22">
-        <v>5.0125641066800543E-2</v>
+        <v>2.850406784560118E-2</v>
       </c>
       <c r="L38" s="22">
-        <v>8.8115119268792244E-2</v>
+        <v>5.0106877127291546E-2</v>
       </c>
       <c r="M38" s="22">
-        <v>6.3958390165270745E-2</v>
+        <v>3.6370094302370447E-2</v>
       </c>
       <c r="N38" s="22">
-        <v>5.5121025679275466E-2</v>
+        <v>3.1344705468950504E-2</v>
       </c>
       <c r="O38" s="22">
-        <v>8.4517762674991517E-2</v>
+        <v>4.8061231540876673E-2</v>
       </c>
       <c r="P38" s="22">
-        <v>5.84802700342303E-2</v>
+        <v>3.3254947950956473E-2</v>
       </c>
       <c r="Q38" s="22">
-        <v>5.84802700342303E-2</v>
+        <v>3.3254947950956473E-2</v>
       </c>
       <c r="R38" s="22">
-        <v>6.080504443960557E-2</v>
+        <v>3.4576936577261005E-2</v>
       </c>
       <c r="S38" s="22">
-        <v>5.4341045825576063E-2</v>
+        <v>3.0901168025939622E-2</v>
       </c>
       <c r="T38" s="22">
-        <v>4.7858987877618518E-2</v>
+        <v>2.721512999040665E-2</v>
       </c>
       <c r="U38" s="22">
-        <v>5.2871885733752524E-2</v>
+        <v>3.0065726562406421E-2</v>
       </c>
       <c r="V38" s="22">
-        <v>5.8861440858895331E-2</v>
+        <v>3.3471701668530605E-2</v>
       </c>
       <c r="W38" s="22">
-        <v>5.8861440858895331E-2</v>
+        <v>3.3471701668530605E-2</v>
       </c>
       <c r="X38" s="22">
-        <v>6.9609573466115737E-2</v>
+        <v>3.9583653446692346E-2</v>
       </c>
       <c r="Y38" s="22">
-        <v>5.247528818007826E-2</v>
+        <v>2.9840200397818012E-2</v>
       </c>
       <c r="Z38" s="22">
-        <v>6.3458690040201521E-2</v>
+        <v>3.6085938609509649E-2</v>
       </c>
       <c r="AA38" s="22">
-        <v>5.7371709460279571E-2</v>
+        <v>3.2624562281300097E-2</v>
       </c>
       <c r="AB38" s="22">
-        <v>8.4517762674991517E-2</v>
+        <v>4.8061231540876673E-2</v>
       </c>
       <c r="AC38" s="22">
-        <v>5.4341045825576063E-2</v>
+        <v>3.0901168025939622E-2</v>
       </c>
     </row>
   </sheetData>
@@ -52738,10 +52738,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8B975E-ED8E-469C-8E9E-AD9DEE925BBC}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -52920,7 +52920,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A56" si="0">"Storage_"&amp;B4&amp;"_"&amp;C4</f>
+        <f t="shared" ref="A4:A59" si="0">"Storage_"&amp;B4&amp;"_"&amp;C4</f>
         <v>Storage_BE_2030</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -52933,7 +52933,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E20" si="1">F4*(2*G4)/8760</f>
+        <f t="shared" ref="E4:E21" si="1">F4*(2*G4)/8760</f>
         <v>150835.76728310503</v>
       </c>
       <c r="F4">
@@ -53800,24 +53800,24 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>Storage_UK_2030</v>
+        <f>"Storage_"&amp;B20&amp;"_"&amp;C20</f>
+        <v>Storage_NO_2030</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>2030</v>
       </c>
       <c r="D20">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>329096.21940639272</v>
+        <f t="shared" ref="E20" si="2">F20*(2*G20)/8760</f>
+        <v>1371.2342479452054</v>
       </c>
       <c r="F20">
-        <v>144144144.09999999</v>
+        <v>600600.60060000001</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -53856,23 +53856,23 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_AT_2040</v>
+        <v>Storage_UK_2030</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E21">
-        <f>F21*(2*G21)/8760</f>
-        <v>1570063.2139269407</v>
+        <f t="shared" si="1"/>
+        <v>329096.21940639272</v>
       </c>
       <c r="F21">
-        <v>687687687.70000005</v>
+        <v>144144144.09999999</v>
       </c>
       <c r="G21">
         <v>10</v>
@@ -53911,10 +53911,10 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_BE_2040</v>
+        <v>Storage_AT_2040</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>2040</v>
@@ -53923,11 +53923,11 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:E38" si="2">F22*(2*G22)/8760</f>
-        <v>150835.76728310503</v>
+        <f>F22*(2*G22)/8760</f>
+        <v>1570063.2139269407</v>
       </c>
       <c r="F22">
-        <v>66066066.07</v>
+        <v>687687687.70000005</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -53966,10 +53966,10 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_CZ_2040</v>
+        <v>Storage_BE_2040</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>2040</v>
@@ -53978,11 +53978,11 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
-        <v>713041.80890410964</v>
+        <f t="shared" ref="E23:E40" si="3">F23*(2*G23)/8760</f>
+        <v>150835.76728310503</v>
       </c>
       <c r="F23">
-        <v>312312312.30000001</v>
+        <v>66066066.07</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -54021,10 +54021,10 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_DK_2040</v>
+        <v>Storage_CZ_2040</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <v>2040</v>
@@ -54033,11 +54033,11 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
-        <v>226253.65091324202</v>
+        <f t="shared" si="3"/>
+        <v>713041.80890410964</v>
       </c>
       <c r="F24">
-        <v>99099099.099999994</v>
+        <v>312312312.30000001</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -54076,10 +54076,10 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_EE_2040</v>
+        <v>Storage_DK_2040</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>2040</v>
@@ -54088,11 +54088,11 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>226253.65091324202</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>99099099.099999994</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -54131,10 +54131,10 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_FI_2040</v>
+        <v>Storage_EE_2040</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>2040</v>
@@ -54143,7 +54143,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F26">
@@ -54186,10 +54186,10 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_FR_2040</v>
+        <v>Storage_FI_2040</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>2040</v>
@@ -54198,11 +54198,11 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
-        <v>2187118.6255707764</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>957957958</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -54241,10 +54241,10 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_DE_2040</v>
+        <v>Storage_FR_2040</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>2040</v>
@@ -54253,11 +54253,11 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
-        <v>4209689.1415525116</v>
+        <f t="shared" si="3"/>
+        <v>2187118.6255707764</v>
       </c>
       <c r="F28">
-        <v>1843843844</v>
+        <v>957957958</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -54296,10 +54296,10 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_EL_2040</v>
+        <v>Storage_DE_2040</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>2040</v>
@@ -54308,11 +54308,11 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4209689.1415525116</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1843843844</v>
       </c>
       <c r="G29">
         <v>10</v>
@@ -54351,10 +54351,10 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_HU_2040</v>
+        <v>Storage_EL_2040</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>2040</v>
@@ -54363,11 +54363,11 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
-        <v>1151836.7682648401</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>504504504.5</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -54406,10 +54406,10 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_IT_2040</v>
+        <v>Storage_HU_2040</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>2040</v>
@@ -54418,11 +54418,11 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
-        <v>3229256.6529680365</v>
+        <f t="shared" si="3"/>
+        <v>1151836.7682648401</v>
       </c>
       <c r="F31">
-        <v>1414414414</v>
+        <v>504504504.5</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -54461,10 +54461,10 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_NL_2040</v>
+        <v>Storage_IT_2040</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>2040</v>
@@ -54473,11 +54473,11 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
-        <v>2372235.2488584477</v>
+        <f t="shared" si="3"/>
+        <v>3229256.6529680365</v>
       </c>
       <c r="F32">
-        <v>1039039039</v>
+        <v>1414414414</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -54516,10 +54516,10 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_PL_2040</v>
+        <v>Storage_NL_2040</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>2040</v>
@@ -54528,11 +54528,11 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
-        <v>637623.92534246575</v>
+        <f t="shared" si="3"/>
+        <v>2372235.2488584477</v>
       </c>
       <c r="F33">
-        <v>279279279.30000001</v>
+        <v>1039039039</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -54571,10 +54571,10 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_SK_2040</v>
+        <v>Storage_PL_2040</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>2040</v>
@@ -54583,11 +54583,11 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
-        <v>822740.54885844747</v>
+        <f t="shared" si="3"/>
+        <v>637623.92534246575</v>
       </c>
       <c r="F34">
-        <v>360360360.39999998</v>
+        <v>279279279.30000001</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -54626,10 +54626,10 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_SI_2040</v>
+        <v>Storage_SK_2040</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>2040</v>
@@ -54638,11 +54638,11 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>822740.54885844747</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>360360360.39999998</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -54681,10 +54681,10 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_ES_2040</v>
+        <v>Storage_SI_2040</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C36">
         <v>2040</v>
@@ -54693,11 +54693,11 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
-        <v>562206.04155251139</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>246246246.19999999</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -54736,10 +54736,10 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_SE_2040</v>
+        <v>Storage_ES_2040</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>2040</v>
@@ -54748,11 +54748,11 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
-        <v>1371.2342479452054</v>
+        <f t="shared" si="3"/>
+        <v>562206.04155251139</v>
       </c>
       <c r="F37">
-        <v>600600.60060000001</v>
+        <v>246246246.19999999</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -54791,10 +54791,10 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_UK_2040</v>
+        <v>Storage_SE_2040</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>2040</v>
@@ -54803,11 +54803,11 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
-        <v>329096.21940639272</v>
+        <f t="shared" si="3"/>
+        <v>1371.2342479452054</v>
       </c>
       <c r="F38">
-        <v>144144144.09999999</v>
+        <v>600600.60060000001</v>
       </c>
       <c r="G38">
         <v>10</v>
@@ -54845,24 +54845,24 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="str">
-        <f t="shared" si="0"/>
-        <v>Storage_AT_2050</v>
+        <f t="shared" ref="A39" si="4">"Storage_"&amp;B39&amp;"_"&amp;C39</f>
+        <v>Storage_NO_2040</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <f>F39*(2*G39)/8760</f>
-        <v>1570063.2139269407</v>
+        <f t="shared" ref="E39" si="5">F39*(2*G39)/8760</f>
+        <v>1371.2342479452054</v>
       </c>
       <c r="F39">
-        <v>687687687.70000005</v>
+        <v>600600.60060000001</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -54901,23 +54901,23 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_BE_2050</v>
+        <v>Storage_UK_2040</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C40">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40:E56" si="3">F40*(2*G40)/8760</f>
-        <v>150835.76728310503</v>
+        <f t="shared" si="3"/>
+        <v>329096.21940639272</v>
       </c>
       <c r="F40">
-        <v>66066066.07</v>
+        <v>144144144.09999999</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -54956,10 +54956,10 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_CZ_2050</v>
+        <v>Storage_AT_2050</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C41">
         <v>2050</v>
@@ -54968,11 +54968,11 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="3"/>
-        <v>713041.80890410964</v>
+        <f>F41*(2*G41)/8760</f>
+        <v>1570063.2139269407</v>
       </c>
       <c r="F41">
-        <v>312312312.30000001</v>
+        <v>687687687.70000005</v>
       </c>
       <c r="G41">
         <v>10</v>
@@ -55011,10 +55011,10 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_DK_2050</v>
+        <v>Storage_BE_2050</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>2050</v>
@@ -55023,11 +55023,11 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="3"/>
-        <v>226253.65091324202</v>
+        <f t="shared" ref="E42:E59" si="6">F42*(2*G42)/8760</f>
+        <v>150835.76728310503</v>
       </c>
       <c r="F42">
-        <v>99099099.099999994</v>
+        <v>66066066.07</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -55066,10 +55066,10 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_EE_2050</v>
+        <v>Storage_CZ_2050</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C43">
         <v>2050</v>
@@ -55078,11 +55078,11 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>713041.80890410964</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>312312312.30000001</v>
       </c>
       <c r="G43">
         <v>10</v>
@@ -55121,10 +55121,10 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_FI_2050</v>
+        <v>Storage_DK_2050</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>2050</v>
@@ -55133,11 +55133,11 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>226253.65091324202</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>99099099.099999994</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -55176,10 +55176,10 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_FR_2050</v>
+        <v>Storage_EE_2050</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>2050</v>
@@ -55188,11 +55188,11 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="3"/>
-        <v>2187118.6255707764</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>957957958</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>10</v>
@@ -55231,10 +55231,10 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_DE_2050</v>
+        <v>Storage_FI_2050</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>2050</v>
@@ -55243,11 +55243,11 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="3"/>
-        <v>4209689.1415525116</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1843843844</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>10</v>
@@ -55286,10 +55286,10 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_EL_2050</v>
+        <v>Storage_FR_2050</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C47">
         <v>2050</v>
@@ -55298,11 +55298,11 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2187118.6255707764</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>957957958</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -55341,10 +55341,10 @@
     <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_HU_2050</v>
+        <v>Storage_DE_2050</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>2050</v>
@@ -55353,11 +55353,11 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="3"/>
-        <v>1151836.7682648401</v>
+        <f t="shared" si="6"/>
+        <v>4209689.1415525116</v>
       </c>
       <c r="F48">
-        <v>504504504.5</v>
+        <v>1843843844</v>
       </c>
       <c r="G48">
         <v>10</v>
@@ -55396,10 +55396,10 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_IT_2050</v>
+        <v>Storage_EL_2050</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <v>2050</v>
@@ -55408,11 +55408,11 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="3"/>
-        <v>3229256.6529680365</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1414414414</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>10</v>
@@ -55451,10 +55451,10 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_NL_2050</v>
+        <v>Storage_HU_2050</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>2050</v>
@@ -55463,11 +55463,11 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="3"/>
-        <v>2372235.2488584477</v>
+        <f t="shared" si="6"/>
+        <v>1151836.7682648401</v>
       </c>
       <c r="F50">
-        <v>1039039039</v>
+        <v>504504504.5</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -55506,10 +55506,10 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_PL_2050</v>
+        <v>Storage_IT_2050</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C51">
         <v>2050</v>
@@ -55518,11 +55518,11 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="3"/>
-        <v>637623.92534246575</v>
+        <f t="shared" si="6"/>
+        <v>3229256.6529680365</v>
       </c>
       <c r="F51">
-        <v>279279279.30000001</v>
+        <v>1414414414</v>
       </c>
       <c r="G51">
         <v>10</v>
@@ -55561,10 +55561,10 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_SK_2050</v>
+        <v>Storage_NL_2050</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C52">
         <v>2050</v>
@@ -55573,11 +55573,11 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="3"/>
-        <v>822740.54885844747</v>
+        <f t="shared" si="6"/>
+        <v>2372235.2488584477</v>
       </c>
       <c r="F52">
-        <v>360360360.39999998</v>
+        <v>1039039039</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -55616,10 +55616,10 @@
     <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_SI_2050</v>
+        <v>Storage_PL_2050</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C53">
         <v>2050</v>
@@ -55628,11 +55628,11 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>637623.92534246575</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>279279279.30000001</v>
       </c>
       <c r="G53">
         <v>10</v>
@@ -55671,10 +55671,10 @@
     <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_ES_2050</v>
+        <v>Storage_SK_2050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C54">
         <v>2050</v>
@@ -55683,11 +55683,11 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="3"/>
-        <v>562206.04155251139</v>
+        <f t="shared" si="6"/>
+        <v>822740.54885844747</v>
       </c>
       <c r="F54">
-        <v>246246246.19999999</v>
+        <v>360360360.39999998</v>
       </c>
       <c r="G54">
         <v>10</v>
@@ -55726,10 +55726,10 @@
     <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_SE_2050</v>
+        <v>Storage_SI_2050</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C55">
         <v>2050</v>
@@ -55738,11 +55738,11 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="3"/>
-        <v>1371.2342479452054</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>600600.60060000001</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>10</v>
@@ -55781,10 +55781,10 @@
     <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>Storage_UK_2050</v>
+        <v>Storage_ES_2050</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C56">
         <v>2050</v>
@@ -55793,11 +55793,11 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="3"/>
-        <v>329096.21940639272</v>
+        <f t="shared" si="6"/>
+        <v>562206.04155251139</v>
       </c>
       <c r="F56">
-        <v>144144144.09999999</v>
+        <v>246246246.19999999</v>
       </c>
       <c r="G56">
         <v>10</v>
@@ -55830,6 +55830,171 @@
         <v>0.99</v>
       </c>
       <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_SE_2050</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <v>2050</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>1371.2342479452054</v>
+      </c>
+      <c r="F57">
+        <v>600600.60060000001</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57" s="28">
+        <v>563.83909089999997</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>955</v>
+      </c>
+      <c r="O57">
+        <v>0.99</v>
+      </c>
+      <c r="P57">
+        <v>0.99</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="str">
+        <f>"Storage_"&amp;B58&amp;"_"&amp;C58</f>
+        <v>Storage_NO_2050</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58">
+        <v>2050</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58" si="7">F58*(2*G58)/8760</f>
+        <v>1371.2342479452054</v>
+      </c>
+      <c r="F58">
+        <v>600600.60060000001</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58" s="28">
+        <v>563.83909089999997</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>955</v>
+      </c>
+      <c r="O58">
+        <v>0.99</v>
+      </c>
+      <c r="P58">
+        <v>0.99</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage_UK_2050</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59">
+        <v>2050</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="6"/>
+        <v>329096.21940639272</v>
+      </c>
+      <c r="F59">
+        <v>144144144.09999999</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59" s="28">
+        <v>563.83909089999997</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>955</v>
+      </c>
+      <c r="O59">
+        <v>0.99</v>
+      </c>
+      <c r="P59">
+        <v>0.99</v>
+      </c>
+      <c r="Q59">
         <v>0</v>
       </c>
     </row>
